--- a/api/Templates/CSFunding 2018-19 Invoice Summary - Template.xlsx
+++ b/api/Templates/CSFunding 2018-19 Invoice Summary - Template.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="239">
   <si>
     <t>Pennsylvania Cyber Charter School</t>
   </si>
   <si>
     <t>INVOICE FOR THE ${FirstYear}-${SecondYear} SCHOOL YEAR</t>
-  </si>
-  <si>
-    <t>Individual Student Information Sheet</t>
   </si>
   <si>
     <t>Summary Information Sheet</t>
@@ -74,6 +71,21 @@
     </r>
   </si>
   <si>
+    <t>${SchoolDistrict.Aun}</t>
+  </si>
+  <si>
+    <t>Invoice Prep Date:</t>
+  </si>
+  <si>
+    <t>${Prepared}</t>
+  </si>
+  <si>
+    <t>Individual Student Information Sheet</t>
+  </si>
+  <si>
+    <t>${SchoolDistrict.Name}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -129,18 +141,6 @@
     </r>
   </si>
   <si>
-    <t>${SchoolDistrict.Aun}</t>
-  </si>
-  <si>
-    <t>Invoice Prep Date:</t>
-  </si>
-  <si>
-    <t>${SchoolDistrict.Name}</t>
-  </si>
-  <si>
-    <t>${Prepared}</t>
-  </si>
-  <si>
     <t>Date Sent to SD:</t>
   </si>
   <si>
@@ -151,15 +151,6 @@
   </si>
   <si>
     <t>${ToPDE}</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Student </t>
-  </si>
-  <si>
-    <t>Last Day</t>
   </si>
   <si>
     <t>JUL
@@ -216,43 +207,94 @@
     <t>Nonspecial Education</t>
   </si>
   <si>
+    <t>${RegularEnrollments.July}</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.August}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.September}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.October}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.November}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.December}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.January}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.February}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.March}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.April}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.May}</t>
+  </si>
+  <si>
+    <t>${SchoolDistrict.RegularRate}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Student </t>
+  </si>
+  <si>
+    <t>Last Day</t>
+  </si>
+  <si>
+    <t>Special Education</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.July}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.August}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.September}</t>
+  </si>
+  <si>
     <t>Date of IEP</t>
   </si>
   <si>
+    <t>${SpecialEnrollments.October}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.November}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.December}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.January}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.February}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.March}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.April}</t>
+  </si>
+  <si>
     <t>Sequential</t>
   </si>
   <si>
-    <t>${RegularEnrollments.July}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.August}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.September}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.October}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.November}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.December}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.January}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.February}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.March}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.April}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.May}</t>
+    <t>${SpecialEnrollments.May}</t>
+  </si>
+  <si>
+    <t>${SchoolDistrict.SpecialRate}</t>
   </si>
   <si>
     <t>Enrollment</t>
@@ -276,9 +318,18 @@
     <t>PASecureID</t>
   </si>
   <si>
+    <t>Total Amount Due Year to Date:</t>
+  </si>
+  <si>
     <t>Student Name and Address</t>
   </si>
   <si>
+    <t xml:space="preserve"> School District</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
     <t>Grade</t>
   </si>
   <si>
@@ -288,51 +339,42 @@
     <t>(if student</t>
   </si>
   <si>
+    <t xml:space="preserve">   PDE Subsidy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Refund from</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Education</t>
   </si>
   <si>
-    <t>Special Education</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.July}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.August}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.September}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.October}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.November}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.December}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.January}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.February}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.March}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.April}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.May}</t>
+    <t xml:space="preserve"> Direct Payment</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
   <si>
     <t>Form Sent to SD:</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Deduction</t>
+  </si>
+  <si>
     <t xml:space="preserve"> withdrew)</t>
   </si>
   <si>
+    <t xml:space="preserve">  Charter School</t>
+  </si>
+  <si>
+    <t>July, ${FirstYear}</t>
+  </si>
+  <si>
     <t>Student</t>
   </si>
   <si>
@@ -342,13 +384,22 @@
     <t>${Students[0].FullName}</t>
   </si>
   <si>
+    <t>${Transactions.July.Payment.Amount}</t>
+  </si>
+  <si>
+    <t>${Transaction.July.Payment.CheckNumber}</t>
+  </si>
+  <si>
     <t>${Students[0].DateOfBirth}</t>
   </si>
   <si>
+    <t>${Transactions.July.Payment.Date}</t>
+  </si>
+  <si>
     <t>${Students[0].CurrentIep}</t>
   </si>
   <si>
-    <t>Total Amount Due Year to Date:</t>
+    <t>${Transactions.July.Refund}</t>
   </si>
   <si>
     <t>${Students[0].PASecuredID}</t>
@@ -357,19 +408,25 @@
     <t>${Students[0].Address1}</t>
   </si>
   <si>
+    <t>August</t>
+  </si>
+  <si>
     <t>${Students[0].FirstDay}</t>
   </si>
   <si>
+    <t>${Transactions.August.Payment.Amount}</t>
+  </si>
+  <si>
     <t>${Students[0].LastDay}</t>
   </si>
   <si>
     <t>${Students[0].IsSpecialEducation}</t>
   </si>
   <si>
-    <t xml:space="preserve"> School District</t>
-  </si>
-  <si>
-    <t>Check</t>
+    <t>${Transaction.August.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.August.Payment.Date}</t>
   </si>
   <si>
     <t>${Students[0].Address2}</t>
@@ -381,34 +438,52 @@
     <t>${Students[0].FormerIep}</t>
   </si>
   <si>
-    <t xml:space="preserve">   PDE Subsidy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Refund from</t>
-  </si>
-  <si>
-    <t>Month</t>
+    <t>${Transactions.August.Refund}</t>
   </si>
   <si>
     <t>${Students[1].FullName}</t>
   </si>
   <si>
-    <t xml:space="preserve"> Direct Payment</t>
-  </si>
-  <si>
     <t>${Students[1].DateOfBirth}</t>
   </si>
   <si>
     <t>${Students[1].CurrentIep}</t>
   </si>
   <si>
+    <t>September</t>
+  </si>
+  <si>
     <t>${Students[1].PASecuredID}</t>
   </si>
   <si>
     <t>${Students[1].Address1}</t>
   </si>
   <si>
-    <t>Number</t>
+    <t>${Transactions.September.Payment.Amount}</t>
+  </si>
+  <si>
+    <t>${Transaction.September.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.September.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.September.Refund}</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>${Transactions.October.Payment.Amount}</t>
+  </si>
+  <si>
+    <t>${Transaction.October.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.October.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.October.Refund}</t>
   </si>
   <si>
     <t>${Students[1].FirstDay}</t>
@@ -420,40 +495,130 @@
     <t>${Students[1].IsSpecialEducation}</t>
   </si>
   <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>${Transactions.November.Payment.Amount}</t>
+  </si>
+  <si>
+    <t>${Transaction.November.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.November.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.November.Refund}</t>
+  </si>
+  <si>
     <t>${Students[1].Address2}</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Deduction</t>
-  </si>
-  <si>
     <t>${Students[1].Grade}</t>
   </si>
   <si>
-    <t xml:space="preserve">  Charter School</t>
-  </si>
-  <si>
-    <t>July, ${FirstYear}</t>
+    <t>December</t>
+  </si>
+  <si>
+    <t>${Transactions.December.Payment.Amount}</t>
+  </si>
+  <si>
+    <t>${Transaction.December.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.December.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.December.Refund}</t>
+  </si>
+  <si>
+    <t>January, ${SecondYear}</t>
+  </si>
+  <si>
+    <t>${Transactions.January.Payment.Amount}</t>
+  </si>
+  <si>
+    <t>${Transaction.January.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.January.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.January.Refund}</t>
   </si>
   <si>
     <t>${Students[1].FormerIep}</t>
   </si>
   <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>${Transactions.February.Payment.Amount}</t>
+  </si>
+  <si>
+    <t>${Transaction.February.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.February.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.February.Refund}</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>${Transactions.March.Payment.Amount}</t>
+  </si>
+  <si>
+    <t>${Transaction.March.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.March.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.March.Refund}</t>
+  </si>
+  <si>
     <t>${Students[2].FullName}</t>
   </si>
   <si>
-    <t>${Transactions.July.Payment.Amount}</t>
+    <t>April</t>
+  </si>
+  <si>
+    <t>${Transactions.April.Payment.Amount}</t>
+  </si>
+  <si>
+    <t>${Transaction.April.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.April.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.April.Refund}</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>${Transactions.May.Payment.Amount}</t>
+  </si>
+  <si>
+    <t>${Transaction.May.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.May.Payment.Date}</t>
   </si>
   <si>
     <t>${Students[2].DateOfBirth}</t>
   </si>
   <si>
+    <t>${Transactions.May.Refund}</t>
+  </si>
+  <si>
     <t>${Students[2].CurrentIep}</t>
   </si>
   <si>
-    <t>${Transaction.July.Payment.CheckNumber}</t>
+    <t>June</t>
   </si>
   <si>
     <t>${Students[2].PASecuredID}</t>
@@ -471,18 +636,21 @@
     <t>${Students[2].IsSpecialEducation}</t>
   </si>
   <si>
+    <t>${Transactions.June.Payment.Amount}</t>
+  </si>
+  <si>
     <t>${Students[2].Address2}</t>
   </si>
   <si>
     <t>${Students[2].Grade}</t>
   </si>
   <si>
-    <t>${Transactions.July.Payment.Date}</t>
-  </si>
-  <si>
     <t>${Students[2].FormerIep}</t>
   </si>
   <si>
+    <t>${Transaction.June.Payment.CheckNumber}</t>
+  </si>
+  <si>
     <t>${Students[3].FullName}</t>
   </si>
   <si>
@@ -492,6 +660,9 @@
     <t>${Students[3].CurrentIep}</t>
   </si>
   <si>
+    <t>${Transactions.June.Payment.Date}</t>
+  </si>
+  <si>
     <t>${Students[3].PASecuredID}</t>
   </si>
   <si>
@@ -516,6 +687,9 @@
     <t>${Students[3].FormerIep}</t>
   </si>
   <si>
+    <t>${Transactions.June.Refund}</t>
+  </si>
+  <si>
     <t>${Students[4].FullName}</t>
   </si>
   <si>
@@ -525,9 +699,6 @@
     <t>${Students[4].CurrentIep}</t>
   </si>
   <si>
-    <t>${Transactions.July.Refund}</t>
-  </si>
-  <si>
     <t>${Students[4].PASecuredID}</t>
   </si>
   <si>
@@ -561,9 +732,6 @@
     <t>${Students[5].CurrentIep}</t>
   </si>
   <si>
-    <t>August</t>
-  </si>
-  <si>
     <t>${Students[5].PASecuredID}</t>
   </si>
   <si>
@@ -600,9 +768,6 @@
     <t>${Students[6].PASecuredID}</t>
   </si>
   <si>
-    <t>${Transactions.August.Payment.Amount}</t>
-  </si>
-  <si>
     <t>${Students[6].Address1}</t>
   </si>
   <si>
@@ -624,7 +789,7 @@
     <t>${Students[6].FormerIep}</t>
   </si>
   <si>
-    <t>${Transaction.August.Payment.CheckNumber}</t>
+    <t>Remit To:</t>
   </si>
   <si>
     <t>${Students[7].FullName}</t>
@@ -636,7 +801,10 @@
     <t>${Students[7].CurrentIep}</t>
   </si>
   <si>
-    <t>${Transactions.August.Payment.Date}</t>
+    <t>Total Paid to Date for 2018-2019 School Year:</t>
+  </si>
+  <si>
+    <t>Business Office, Suite A130</t>
   </si>
   <si>
     <t>${Students[7].PASecuredID}</t>
@@ -660,172 +828,10 @@
     <t>${Students[7].Grade}</t>
   </si>
   <si>
+    <t>652 Midland Ave</t>
+  </si>
+  <si>
     <t>${Students[7].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Transactions.August.Refund}</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>${Transactions.September.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.September.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.September.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.September.Refund}</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>${Transactions.October.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.October.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.October.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.October.Refund}</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>${Transactions.November.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.November.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.November.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.November.Refund}</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>${Transactions.December.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.December.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.December.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.December.Refund}</t>
-  </si>
-  <si>
-    <t>January, ${SecondYear}</t>
-  </si>
-  <si>
-    <t>${Transactions.January.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.January.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.January.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.January.Refund}</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>${Transactions.February.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.February.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.February.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.February.Refund}</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>${Transactions.March.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.March.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.March.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.March.Refund}</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>${Transactions.April.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.April.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.April.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.April.Refund}</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>${Transactions.May.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.May.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.May.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.May.Refund}</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>${Transactions.June.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.June.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.June.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.June.Refund}</t>
-  </si>
-  <si>
-    <t>Remit To:</t>
-  </si>
-  <si>
-    <t>Total Paid to Date for 2018-2019 School Year:</t>
-  </si>
-  <si>
-    <t>Business Office, Suite A130</t>
-  </si>
-  <si>
-    <t>652 Midland Ave</t>
   </si>
   <si>
     <t>Midland, PA 15059</t>
@@ -868,14 +874,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10.0"/>
+      <color rgb="FF800000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
-      <color rgb="FF800000"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1015,39 +1021,9 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -1057,9 +1033,7 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -1074,6 +1048,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -1091,6 +1077,26 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1112,38 +1118,6 @@
       </right>
       <top/>
       <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -1156,36 +1130,24 @@
       <bottom/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
     </border>
     <border>
       <left/>
@@ -1193,6 +1155,98 @@
         <color rgb="FFAAAAAA"/>
       </right>
       <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD8D8D8"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD8D8D8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD8D8D8"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD8D8D8"/>
+      </right>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
@@ -1219,105 +1273,6 @@
       <bottom style="thin">
         <color rgb="FFEAEAEA"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD8D8D8"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD8D8D8"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD8D8D8"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD8D8D8"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
     </border>
     <border>
       <left/>
@@ -1347,14 +1302,53 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFAAAAAA"/>
+        <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FFAAAAAA"/>
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
@@ -1425,6 +1419,18 @@
       <top/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFAAAAAA"/>
@@ -1477,155 +1483,161 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="5" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="16" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1639,267 +1651,261 @@
     <xf borderId="18" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="16" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="22" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="16" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="6" fillId="2" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="17" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="5" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf borderId="16" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="23" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="20" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="23" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="22" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="23" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="26" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="27" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="28" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="29" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="27" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="30" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="31" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="4" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="28" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="27" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="16" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="28" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="16" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="26" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="32" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="28" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="33" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="34" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="20" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="16" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="35" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="16" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="36" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="20" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="36" fillId="4" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="29" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="30" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="35" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="38" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="34" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="20" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="31" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="35" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="39" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="34" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="40" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="31" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="40" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="41" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="39" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="42" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="43" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="42" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="44" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="36" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="37" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="36" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="38" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="44" fillId="4" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="38" fillId="4" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="37" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="36" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="37" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="34" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="39" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="40" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="39" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="41" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="41" fillId="4" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="40" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="42" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="39" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="40" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="39" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="43" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="44" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="43" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="42" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="43" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="45" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="45" fillId="4" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="44" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="43" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="44" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="31" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="23" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="26" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="26" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="26" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="46" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="45" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="47" fillId="2" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="46" fillId="2" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="47" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="48" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1909,7 +1915,7 @@
     <xf borderId="50" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="50" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="49" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="51" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1981,14 +1987,14 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="4"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2"/>
@@ -1996,7 +2002,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="7"/>
+      <c r="N1" s="9"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
@@ -2011,14 +2017,14 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="10"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="12"/>
@@ -2026,7 +2032,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
-      <c r="N2" s="18"/>
+      <c r="N2" s="15"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -2041,22 +2047,22 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="16" t="s">
-        <v>3</v>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14" t="s">
+        <v>2</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="18"/>
+      <c r="N3" s="15"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
@@ -2071,22 +2077,22 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="16" t="s">
-        <v>4</v>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="18"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -2101,20 +2107,20 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="23"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="18"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -2129,25 +2135,25 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="25" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="30" t="s">
-        <v>9</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -2163,24 +2169,24 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="28" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="30" t="s">
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="25" t="s">
         <v>11</v>
       </c>
       <c r="O7" s="8"/>
@@ -2197,22 +2203,22 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="28" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="30" t="s">
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="25" t="s">
         <v>13</v>
       </c>
       <c r="O8" s="8"/>
@@ -2229,20 +2235,20 @@
       <c r="Z8" s="8"/>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="23"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="18"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
@@ -2257,20 +2263,20 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="23"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="18"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
@@ -2285,45 +2291,45 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" ht="39.0" customHeight="1">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="F11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="G11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="H11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="I11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="J11" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="K11" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="L11" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="M11" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="N11" s="41" t="s">
         <v>26</v>
-      </c>
-      <c r="L11" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="47" t="s">
-        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -2339,46 +2345,48 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="D12" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="G12" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="H12" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="I12" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="J12" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="K12" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="L12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="M12" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="59"/>
-      <c r="N12" s="62">
+      <c r="N12" s="51" t="str">
         <f t="shared" ref="N12:N13" si="1">ROUND(SUMIF(B12:L12,"&gt;0")*M12/12,2)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -2394,46 +2402,48 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="M13" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" s="59"/>
-      <c r="N13" s="62">
+      <c r="N13" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -2449,20 +2459,20 @@
       <c r="Z13" s="8"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="67"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="72"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="61"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
@@ -2477,24 +2487,24 @@
       <c r="Z14" s="8"/>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="85">
+      <c r="A15" s="10"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="66" t="str">
         <f>SUM(N12:N13)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -2510,20 +2520,20 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="23"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="18"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
@@ -2538,30 +2548,30 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="23"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="18"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
@@ -2576,32 +2586,32 @@
       <c r="Z17" s="8"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="92"/>
-      <c r="E18" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="98"/>
-      <c r="K18" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" s="98"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="23"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="71"/>
+      <c r="E18" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="71"/>
+      <c r="G18" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="77"/>
+      <c r="K18" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="77"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="18"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
@@ -2616,32 +2626,32 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="105" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="106" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" s="108"/>
-      <c r="J19" s="109" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="110" t="s">
-        <v>134</v>
-      </c>
-      <c r="L19" s="111"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="23"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="89"/>
+      <c r="J19" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="96"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="18"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
@@ -2656,32 +2666,32 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="115" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="116" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" s="117" t="s">
-        <v>171</v>
-      </c>
-      <c r="I20" s="118"/>
-      <c r="J20" s="120" t="s">
-        <v>159</v>
-      </c>
-      <c r="K20" s="121" t="s">
-        <v>180</v>
-      </c>
-      <c r="L20" s="122"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="23"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="100"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="110"/>
+      <c r="J20" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="116"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="18"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
@@ -2696,32 +2706,32 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="115" t="s">
-        <v>182</v>
-      </c>
-      <c r="G21" s="116" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" s="117" t="s">
-        <v>184</v>
-      </c>
-      <c r="I21" s="118"/>
-      <c r="J21" s="120" t="s">
-        <v>182</v>
-      </c>
-      <c r="K21" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="L21" s="122"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="23"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="117"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="108" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="110"/>
+      <c r="J21" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" s="116"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="18"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
@@ -2736,32 +2746,32 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="115" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" s="116" t="s">
-        <v>188</v>
-      </c>
-      <c r="H22" s="117" t="s">
-        <v>189</v>
-      </c>
-      <c r="I22" s="118"/>
-      <c r="J22" s="120" t="s">
-        <v>187</v>
-      </c>
-      <c r="K22" s="121" t="s">
-        <v>190</v>
-      </c>
-      <c r="L22" s="122"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="23"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="117"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="110"/>
+      <c r="J22" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" s="116"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="18"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
@@ -2776,32 +2786,32 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="115" t="s">
-        <v>192</v>
-      </c>
-      <c r="G23" s="116" t="s">
-        <v>193</v>
-      </c>
-      <c r="H23" s="117" t="s">
-        <v>194</v>
-      </c>
-      <c r="I23" s="118"/>
-      <c r="J23" s="120" t="s">
-        <v>192</v>
-      </c>
-      <c r="K23" s="121" t="s">
-        <v>195</v>
-      </c>
-      <c r="L23" s="122"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="124"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="117"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="110"/>
+      <c r="J23" s="112" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="114" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" s="116"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="120"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
@@ -2816,32 +2826,32 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="115" t="s">
-        <v>197</v>
-      </c>
-      <c r="G24" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24" s="117" t="s">
-        <v>199</v>
-      </c>
-      <c r="I24" s="118"/>
-      <c r="J24" s="120" t="s">
-        <v>197</v>
-      </c>
-      <c r="K24" s="121" t="s">
-        <v>200</v>
-      </c>
-      <c r="L24" s="122"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="23"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="117"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="110"/>
+      <c r="J24" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="L24" s="116"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="18"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
@@ -2856,32 +2866,32 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="115" t="s">
-        <v>202</v>
-      </c>
-      <c r="G25" s="116" t="s">
-        <v>203</v>
-      </c>
-      <c r="H25" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="I25" s="118"/>
-      <c r="J25" s="120" t="s">
-        <v>202</v>
-      </c>
-      <c r="K25" s="121" t="s">
-        <v>205</v>
-      </c>
-      <c r="L25" s="122"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="23"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="117"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="110"/>
+      <c r="J25" s="112" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="L25" s="116"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="18"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
@@ -2896,32 +2906,32 @@
       <c r="Z25" s="8"/>
     </row>
     <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="115" t="s">
-        <v>207</v>
-      </c>
-      <c r="G26" s="116" t="s">
-        <v>208</v>
-      </c>
-      <c r="H26" s="117" t="s">
-        <v>209</v>
-      </c>
-      <c r="I26" s="118"/>
-      <c r="J26" s="120" t="s">
-        <v>207</v>
-      </c>
-      <c r="K26" s="121" t="s">
-        <v>210</v>
-      </c>
-      <c r="L26" s="122"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="23"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="117"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" s="110"/>
+      <c r="J26" s="112" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26" s="116"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="18"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
@@ -2936,32 +2946,32 @@
       <c r="Z26" s="8"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="G27" s="116" t="s">
-        <v>213</v>
-      </c>
-      <c r="H27" s="117" t="s">
-        <v>214</v>
-      </c>
-      <c r="I27" s="118"/>
-      <c r="J27" s="120" t="s">
-        <v>212</v>
-      </c>
-      <c r="K27" s="121" t="s">
-        <v>215</v>
-      </c>
-      <c r="L27" s="122"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="23"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="117"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="110"/>
+      <c r="J27" s="112" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="114" t="s">
+        <v>151</v>
+      </c>
+      <c r="L27" s="116"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="18"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
@@ -2976,32 +2986,32 @@
       <c r="Z27" s="8"/>
     </row>
     <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="115" t="s">
-        <v>217</v>
-      </c>
-      <c r="G28" s="116" t="s">
-        <v>218</v>
-      </c>
-      <c r="H28" s="117" t="s">
-        <v>219</v>
-      </c>
-      <c r="I28" s="118"/>
-      <c r="J28" s="120" t="s">
-        <v>217</v>
-      </c>
-      <c r="K28" s="121" t="s">
-        <v>220</v>
-      </c>
-      <c r="L28" s="122"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="23"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="117"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="106" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="108" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28" s="110"/>
+      <c r="J28" s="112" t="s">
+        <v>154</v>
+      </c>
+      <c r="K28" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="L28" s="116"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="18"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
@@ -3016,32 +3026,32 @@
       <c r="Z28" s="8"/>
     </row>
     <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="115" t="s">
-        <v>222</v>
-      </c>
-      <c r="G29" s="116" t="s">
-        <v>223</v>
-      </c>
-      <c r="H29" s="117" t="s">
-        <v>224</v>
-      </c>
-      <c r="I29" s="118"/>
-      <c r="J29" s="120" t="s">
-        <v>222</v>
-      </c>
-      <c r="K29" s="121" t="s">
-        <v>225</v>
-      </c>
-      <c r="L29" s="122"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="23"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="117"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="106" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="108" t="s">
+        <v>161</v>
+      </c>
+      <c r="I29" s="110"/>
+      <c r="J29" s="112" t="s">
+        <v>159</v>
+      </c>
+      <c r="K29" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="L29" s="116"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="18"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
@@ -3056,32 +3066,32 @@
       <c r="Z29" s="8"/>
     </row>
     <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" s="125"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="127" t="s">
-        <v>227</v>
-      </c>
-      <c r="G30" s="128" t="s">
-        <v>228</v>
-      </c>
-      <c r="H30" s="129" t="s">
-        <v>229</v>
-      </c>
-      <c r="I30" s="130"/>
-      <c r="J30" s="131" t="s">
-        <v>227</v>
-      </c>
-      <c r="K30" s="132" t="s">
-        <v>230</v>
-      </c>
-      <c r="L30" s="133"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="23"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="126" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="127" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" s="128" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="129"/>
+      <c r="J30" s="130" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="L30" s="132"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="18"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
@@ -3096,29 +3106,29 @@
       <c r="Z30" s="8"/>
     </row>
     <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="136">
+      <c r="A31" s="10"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="135">
         <f>SUM(F19:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="135">
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134">
         <f>SUM(J19:J30)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="135"/>
-      <c r="L31" s="135">
+      <c r="K31" s="134"/>
+      <c r="L31" s="134">
         <f>SUM(L19:L30)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="23"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="18"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -3133,20 +3143,20 @@
       <c r="Z31" s="8"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="23"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="18"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
@@ -3161,26 +3171,26 @@
       <c r="Z32" s="8"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="137" t="s">
-        <v>231</v>
-      </c>
-      <c r="C33" s="138" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="136" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="N33" s="140">
+      <c r="D33" s="13"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="N33" s="139">
         <f>ROUND(F31+J31-L31,2)</f>
         <v>0</v>
       </c>
@@ -3198,22 +3208,22 @@
       <c r="Z33" s="8"/>
     </row>
     <row r="34" ht="19.5" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="141"/>
-      <c r="C34" s="138" t="s">
-        <v>233</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="142"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="137" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="141"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
@@ -3228,21 +3238,21 @@
       <c r="Z34" s="8"/>
     </row>
     <row r="35" ht="19.5" customHeight="1">
-      <c r="A35" s="143"/>
-      <c r="B35" s="141"/>
-      <c r="C35" s="138" t="s">
-        <v>234</v>
-      </c>
-      <c r="D35" s="144"/>
+      <c r="A35" s="142"/>
+      <c r="B35" s="140"/>
+      <c r="C35" s="137" t="s">
+        <v>235</v>
+      </c>
+      <c r="D35" s="143"/>
       <c r="E35" s="145"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="144"/>
-      <c r="M35" s="144"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="143"/>
       <c r="N35" s="146"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
@@ -3258,21 +3268,21 @@
       <c r="Z35" s="8"/>
     </row>
     <row r="36" ht="19.5" customHeight="1">
-      <c r="A36" s="143"/>
-      <c r="B36" s="141"/>
-      <c r="C36" s="138" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" s="144"/>
+      <c r="A36" s="142"/>
+      <c r="B36" s="140"/>
+      <c r="C36" s="137" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="143"/>
       <c r="E36" s="145"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="144"/>
-      <c r="M36" s="144"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="143"/>
+      <c r="L36" s="143"/>
+      <c r="M36" s="143"/>
       <c r="N36" s="146"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
@@ -3291,7 +3301,7 @@
       <c r="A37" s="147"/>
       <c r="B37" s="148"/>
       <c r="C37" s="149" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
@@ -3304,11 +3314,11 @@
       <c r="L37" s="150"/>
       <c r="M37" s="151" t="str">
         <f>IF(N15-N33&gt;=0,"Net Due to Charter School:","Net Due to School District:")</f>
-        <v>Net Due to Charter School:</v>
-      </c>
-      <c r="N37" s="152">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N37" s="152" t="str">
         <f>ROUND(ABS(N15-N33),2)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
@@ -3325,7 +3335,7 @@
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="8"/>
-      <c r="B38" s="141"/>
+      <c r="B38" s="140"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -3390,19 +3400,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3"/>
+      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="9"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
@@ -3420,19 +3430,19 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="15" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="17"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -3450,19 +3460,19 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="16" t="s">
-        <v>2</v>
+      <c r="F3" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="18"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -3480,19 +3490,19 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="16" t="s">
-        <v>5</v>
+      <c r="F4" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="18"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -3510,19 +3520,19 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="27"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -3540,20 +3550,20 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="30" t="s">
-        <v>9</v>
+      <c r="C6" s="13"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -3572,17 +3582,17 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="33"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="36"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -3600,24 +3610,24 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="41" t="s">
-        <v>31</v>
+      <c r="A8" s="38"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="52"/>
+      <c r="K8" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -3636,28 +3646,28 @@
       <c r="Z8" s="8"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="57" t="s">
-        <v>48</v>
+      <c r="A9" s="38"/>
+      <c r="B9" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>62</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -3676,34 +3686,34 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>31</v>
+      <c r="A10" s="38"/>
+      <c r="B10" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="56"/>
+      <c r="F10" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -3722,24 +3732,24 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="57" t="s">
-        <v>71</v>
+      <c r="A11" s="38"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="76"/>
+      <c r="I11" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>85</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -3758,22 +3768,22 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="73" t="s">
-        <v>74</v>
+      <c r="A12" s="38"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="85"/>
+      <c r="F12" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="87" t="s">
+        <v>91</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -3792,29 +3802,29 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="77">
+      <c r="A13" s="38"/>
+      <c r="B13" s="93">
         <v>1.0</v>
       </c>
-      <c r="C13" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="86"/>
+      <c r="C13" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="99"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="107"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -3832,22 +3842,22 @@
       <c r="Z13" s="8"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="73" t="s">
-        <v>85</v>
+      <c r="A14" s="38"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="99"/>
+      <c r="F14" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="102"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="87" t="s">
+        <v>104</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -3866,17 +3876,17 @@
       <c r="Z14" s="8"/>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -3894,22 +3904,22 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="73" t="s">
-        <v>92</v>
+      <c r="A16" s="38"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="85"/>
+      <c r="F16" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="90"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="87" t="s">
+        <v>108</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -3928,30 +3938,30 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="77">
+      <c r="A17" s="38"/>
+      <c r="B17" s="93">
         <f>B13+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="K17" s="86"/>
+      <c r="C17" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="99"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="107"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -3969,22 +3979,22 @@
       <c r="Z17" s="8"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="73" t="s">
-        <v>105</v>
+      <c r="A18" s="38"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="99"/>
+      <c r="F18" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="102"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="87" t="s">
+        <v>141</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -4003,17 +4013,17 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -4031,22 +4041,22 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="73" t="s">
-        <v>109</v>
+      <c r="A20" s="38"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="123" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="85"/>
+      <c r="F20" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="87" t="s">
+        <v>164</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -4065,30 +4075,30 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="B21" s="77">
+      <c r="A21" s="38"/>
+      <c r="B21" s="93">
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="K21" s="86"/>
+      <c r="C21" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="99"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" s="104" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" s="107"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -4106,22 +4116,22 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="81"/>
-      <c r="F22" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="73" t="s">
-        <v>119</v>
+      <c r="A22" s="38"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="99"/>
+      <c r="F22" s="121" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="102"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="87" t="s">
+        <v>174</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -4140,17 +4150,17 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -4168,22 +4178,22 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="73" t="s">
-        <v>122</v>
+      <c r="A24" s="38"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="123" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="85"/>
+      <c r="F24" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="90"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="87" t="s">
+        <v>178</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -4202,30 +4212,30 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="35"/>
-      <c r="B25" s="77">
+      <c r="A25" s="38"/>
+      <c r="B25" s="93">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C25" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="97" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="I25" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="J25" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="K25" s="86"/>
+      <c r="C25" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="99"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="J25" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="K25" s="107"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -4243,22 +4253,22 @@
       <c r="Z25" s="8"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="97" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="81"/>
-      <c r="F26" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="73" t="s">
-        <v>130</v>
+      <c r="A26" s="38"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="119" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="99"/>
+      <c r="F26" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="102"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="87" t="s">
+        <v>187</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -4277,17 +4287,17 @@
       <c r="Z26" s="8"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="35"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -4305,22 +4315,22 @@
       <c r="Z27" s="8"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="73" t="s">
-        <v>133</v>
+      <c r="A28" s="38"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="123" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="85"/>
+      <c r="F28" s="87" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="90"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="87" t="s">
+        <v>191</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -4339,30 +4349,30 @@
       <c r="Z28" s="8"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="35"/>
-      <c r="B29" s="77">
+      <c r="A29" s="38"/>
+      <c r="B29" s="93">
         <f>B25+1</f>
         <v>5</v>
       </c>
-      <c r="C29" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="I29" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="J29" s="79" t="s">
-        <v>139</v>
-      </c>
-      <c r="K29" s="86"/>
+      <c r="C29" s="95" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="119" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="99"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="104" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="104" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" s="95" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="107"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
@@ -4380,22 +4390,22 @@
       <c r="Z29" s="8"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="35"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" s="81"/>
-      <c r="F30" s="99" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="83"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="73" t="s">
-        <v>142</v>
+      <c r="A30" s="38"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="99"/>
+      <c r="F30" s="121" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="102"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="87" t="s">
+        <v>199</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -4414,17 +4424,17 @@
       <c r="Z30" s="8"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="35"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
@@ -4442,22 +4452,22 @@
       <c r="Z31" s="8"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="35"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="73" t="s">
-        <v>145</v>
+      <c r="A32" s="38"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="123" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="85"/>
+      <c r="F32" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" s="90"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="87" t="s">
+        <v>202</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -4476,30 +4486,30 @@
       <c r="Z32" s="8"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="35"/>
-      <c r="B33" s="77">
+      <c r="A33" s="38"/>
+      <c r="B33" s="93">
         <f>B29+1</f>
         <v>6</v>
       </c>
-      <c r="C33" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="81"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="I33" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="J33" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="K33" s="86"/>
+      <c r="C33" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" s="119" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="99"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" s="104" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="K33" s="107"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
@@ -4517,22 +4527,22 @@
       <c r="Z33" s="8"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="35"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="81"/>
-      <c r="F34" s="99" t="s">
-        <v>153</v>
-      </c>
-      <c r="G34" s="83"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="73" t="s">
-        <v>154</v>
+      <c r="A34" s="38"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="119" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" s="99"/>
+      <c r="F34" s="121" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" s="102"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="87" t="s">
+        <v>210</v>
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -4551,17 +4561,17 @@
       <c r="Z34" s="8"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="35"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -4579,22 +4589,22 @@
       <c r="Z35" s="8"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="35"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="74"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="73" t="s">
-        <v>157</v>
+      <c r="A36" s="38"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="123" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="85"/>
+      <c r="F36" s="87" t="s">
+        <v>212</v>
+      </c>
+      <c r="G36" s="90"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="87" t="s">
+        <v>213</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -4613,30 +4623,30 @@
       <c r="Z36" s="8"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="35"/>
-      <c r="B37" s="77">
+      <c r="A37" s="38"/>
+      <c r="B37" s="93">
         <f>B33+1</f>
         <v>7</v>
       </c>
-      <c r="C37" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="84" t="s">
-        <v>161</v>
-      </c>
-      <c r="I37" s="84" t="s">
-        <v>162</v>
-      </c>
-      <c r="J37" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="K37" s="86"/>
+      <c r="C37" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="119" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="99"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="104" t="s">
+        <v>216</v>
+      </c>
+      <c r="I37" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="J37" s="95" t="s">
+        <v>218</v>
+      </c>
+      <c r="K37" s="107"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -4654,22 +4664,22 @@
       <c r="Z37" s="8"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="35"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="97" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="G38" s="83"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="73" t="s">
-        <v>166</v>
+      <c r="A38" s="38"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="99"/>
+      <c r="F38" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="G38" s="102"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="87" t="s">
+        <v>221</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -4688,17 +4698,17 @@
       <c r="Z38" s="8"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="35"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -4716,22 +4726,22 @@
       <c r="Z39" s="8"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="35"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="104" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" s="71"/>
-      <c r="F40" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" s="74"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="73" t="s">
-        <v>170</v>
+      <c r="A40" s="38"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="123" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="85"/>
+      <c r="F40" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="G40" s="90"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="87" t="s">
+        <v>225</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -4750,30 +4760,30 @@
       <c r="Z40" s="8"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="35"/>
-      <c r="B41" s="77">
+      <c r="A41" s="38"/>
+      <c r="B41" s="93">
         <f>B37+1</f>
         <v>8</v>
       </c>
-      <c r="C41" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="D41" s="97" t="s">
-        <v>173</v>
-      </c>
-      <c r="E41" s="81"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="I41" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="J41" s="79" t="s">
-        <v>176</v>
-      </c>
-      <c r="K41" s="86"/>
+      <c r="C41" s="95" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="119" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="99"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="104" t="s">
+        <v>230</v>
+      </c>
+      <c r="I41" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="J41" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="K41" s="107"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -4791,22 +4801,22 @@
       <c r="Z41" s="8"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="35"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="97" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="81"/>
-      <c r="F42" s="99" t="s">
-        <v>178</v>
-      </c>
-      <c r="G42" s="83"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="73" t="s">
-        <v>179</v>
+      <c r="A42" s="38"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="119" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" s="99"/>
+      <c r="F42" s="121" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42" s="102"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -4825,17 +4835,17 @@
       <c r="Z42" s="8"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="119"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
+      <c r="A43" s="144"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>

--- a/api/Templates/CSFunding 2018-19 Invoice Summary - Template.xlsx
+++ b/api/Templates/CSFunding 2018-19 Invoice Summary - Template.xlsx
@@ -20,7 +20,16 @@
     <t>INVOICE FOR THE ${FirstYear}-${SecondYear} SCHOOL YEAR</t>
   </si>
   <si>
+    <t>Individual Student Information Sheet</t>
+  </si>
+  <si>
+    <t>For the Months of July ${FirstYear} to ${AsOfMonth} ${AsOfYear}</t>
+  </si>
+  <si>
     <t>Summary Information Sheet</t>
+  </si>
+  <si>
+    <t>${SchoolDistrict.Aun}</t>
   </si>
   <si>
     <r>
@@ -71,18 +80,15 @@
     </r>
   </si>
   <si>
-    <t>${SchoolDistrict.Aun}</t>
-  </si>
-  <si>
     <t>Invoice Prep Date:</t>
   </si>
   <si>
+    <t>${SchoolDistrict.Name}</t>
+  </si>
+  <si>
     <t>${Prepared}</t>
   </si>
   <si>
-    <t>${SchoolDistrict.Name}</t>
-  </si>
-  <si>
     <t>Date Sent to SD:</t>
   </si>
   <si>
@@ -93,6 +99,9 @@
   </si>
   <si>
     <t>${ToPDE}</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
   </si>
   <si>
     <t>JUL
@@ -146,6 +155,18 @@
 Due</t>
   </si>
   <si>
+    <t xml:space="preserve">CS Student </t>
+  </si>
+  <si>
+    <t>Last Day</t>
+  </si>
+  <si>
+    <t>Date of IEP</t>
+  </si>
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
     <t>Nonspecial Education</t>
   </si>
   <si>
@@ -224,15 +245,72 @@
     <t>${SchoolDistrict.SpecialRate}</t>
   </si>
   <si>
+    <t>Enrollment</t>
+  </si>
+  <si>
+    <t>First Day</t>
+  </si>
+  <si>
+    <t>Educated</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>PASecureID</t>
+  </si>
+  <si>
+    <t>Student Name and Address</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>(if student</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Form Sent to SD:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> withdrew)</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Prior</t>
+  </si>
+  <si>
     <t>Total Amount Due Year to Date:</t>
   </si>
   <si>
+    <t>${Students[0].FullName}</t>
+  </si>
+  <si>
     <t xml:space="preserve"> School District</t>
   </si>
   <si>
     <t>Check</t>
   </si>
   <si>
+    <t>${Students[0].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[0].CurrentIep}</t>
+  </si>
+  <si>
     <t xml:space="preserve">   PDE Subsidy</t>
   </si>
   <si>
@@ -242,6 +320,12 @@
     <t>Month</t>
   </si>
   <si>
+    <t>${Students[0].PASecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[0].Address1}</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Direct Payment</t>
   </si>
   <si>
@@ -260,6 +344,27 @@
     <t>July, ${FirstYear}</t>
   </si>
   <si>
+    <t>${Students[0].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[0].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[0].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[0].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[0].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[0].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[0].Address3}</t>
+  </si>
+  <si>
     <t>${Transactions.July.Payment.Amount}</t>
   </si>
   <si>
@@ -392,6 +497,15 @@
     <t>${Transactions.March.Refund}</t>
   </si>
   <si>
+    <t>${Students[1].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[1].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[1].CurrentIep}</t>
+  </si>
+  <si>
     <t>April</t>
   </si>
   <si>
@@ -425,6 +539,27 @@
     <t>June</t>
   </si>
   <si>
+    <t>${Students[1].PASecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[1].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[1].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[1].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[1].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[1].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[1].Grade}</t>
+  </si>
+  <si>
     <t>${Transactions.June.Payment.Amount}</t>
   </si>
   <si>
@@ -437,21 +572,231 @@
     <t>${Transactions.June.Refund}</t>
   </si>
   <si>
+    <t>${Students[1].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[1].Address3}</t>
+  </si>
+  <si>
+    <t>${Students[2].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[2].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[2].CurrentIep}</t>
+  </si>
+  <si>
+    <t>${Students[2].PASecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[2].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[2].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[2].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[2].IsSpecialEducation}</t>
+  </si>
+  <si>
     <t>Please Remit Payment to:</t>
   </si>
   <si>
+    <t>${Students[2].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[2].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[2].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[2].Address3}</t>
+  </si>
+  <si>
+    <t>${Students[3].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[3].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[3].CurrentIep}</t>
+  </si>
+  <si>
+    <t>${Students[3].PASecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[3].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[3].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[3].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[3].IsSpecialEducation}</t>
+  </si>
+  <si>
     <t>Business Office, Suite A130</t>
   </si>
   <si>
+    <t>${Students[3].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[3].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[3].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[3].Address3}</t>
+  </si>
+  <si>
+    <t>${Students[4].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[4].DateOfBirth}</t>
+  </si>
+  <si>
     <t>Total Paid to Date for 2018-2019 School Year:</t>
   </si>
   <si>
+    <t>${Students[4].CurrentIep}</t>
+  </si>
+  <si>
+    <t>${Students[4].PASecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[4].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[4].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[4].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[4].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[4].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[4].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[4].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[4].Address3}</t>
+  </si>
+  <si>
+    <t>${Students[5].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[5].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[5].CurrentIep}</t>
+  </si>
+  <si>
     <t>652 Midland Avenue</t>
   </si>
   <si>
+    <t>${Students[5].PASecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[5].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[5].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[5].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[5].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[5].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[5].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[5].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[5].Address3}</t>
+  </si>
+  <si>
+    <t>${Students[6].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[6].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[6].CurrentIep}</t>
+  </si>
+  <si>
     <t>Midland, PA 15059</t>
   </si>
   <si>
+    <t>${Students[6].PASecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[6].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[6].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[6].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[6].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[6].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[6].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[6].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[6].Address3}</t>
+  </si>
+  <si>
+    <t>${Students[7].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[7].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[7].CurrentIep}</t>
+  </si>
+  <si>
+    <t>${Students[7].PASecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[7].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[7].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[7].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[7].IsSpecialEducation}</t>
+  </si>
+  <si>
     <t>Please Direct any questions to:</t>
   </si>
   <si>
@@ -459,403 +804,6 @@
   </si>
   <si>
     <t>Finance: 724-888-7775</t>
-  </si>
-  <si>
-    <t>Individual Student Information Sheet</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">For the Months of </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF800000"/>
-        <sz val="10.0"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">July </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>${FirstYear}</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> to</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF800000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <color rgb="FF800000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>${AsOfYear}</t>
-    </r>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Student </t>
-  </si>
-  <si>
-    <t>Last Day</t>
-  </si>
-  <si>
-    <t>Date of IEP</t>
-  </si>
-  <si>
-    <t>Sequential</t>
-  </si>
-  <si>
-    <t>Enrollment</t>
-  </si>
-  <si>
-    <t>First Day</t>
-  </si>
-  <si>
-    <t>Educated</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>PASecureID</t>
-  </si>
-  <si>
-    <t>Student Name and Address</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Notification</t>
-  </si>
-  <si>
-    <t>(if student</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Form Sent to SD:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> withdrew)</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Prior</t>
-  </si>
-  <si>
-    <t>${Students[0].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[0].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[0].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[0].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[0].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[0].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[0].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[0].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[0].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[0].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[0].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[0].Address3}</t>
-  </si>
-  <si>
-    <t>${Students[1].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[1].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[1].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[1].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[1].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[1].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[1].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[1].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[1].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[1].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[1].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[1].Address3}</t>
-  </si>
-  <si>
-    <t>${Students[2].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[2].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[2].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[2].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[2].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[2].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[2].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[2].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[2].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[2].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[2].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[2].Address3}</t>
-  </si>
-  <si>
-    <t>${Students[3].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[3].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[3].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[3].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[3].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[3].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[3].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[3].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[3].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[3].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[3].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[3].Address3}</t>
-  </si>
-  <si>
-    <t>${Students[4].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[4].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[4].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[4].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[4].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[4].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[4].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[4].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[4].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[4].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[4].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[4].Address3}</t>
-  </si>
-  <si>
-    <t>${Students[5].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[5].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[5].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[5].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[5].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[5].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[5].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[5].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[5].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[5].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[5].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[5].Address3}</t>
-  </si>
-  <si>
-    <t>${Students[6].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[6].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[6].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[6].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[6].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[6].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[6].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[6].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[6].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[6].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[6].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[6].Address3}</t>
-  </si>
-  <si>
-    <t>${Students[7].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[7].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[7].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[7].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[7].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[7].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[7].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[7].IsSpecialEducation}</t>
   </si>
   <si>
     <t>${Students[7].Address2}</t>
@@ -925,6 +873,16 @@
       <name val="Arial"/>
     </font>
     <font>
+      <i/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="9.0"/>
       <name val="Arial"/>
@@ -947,16 +905,6 @@
       <color rgb="FF172B4D"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <i/>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -973,14 +921,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFEAEAEA"/>
+        <bgColor rgb="FFEAEAEA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAEAEA"/>
-        <bgColor rgb="FFEAEAEA"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1039,6 +987,13 @@
       </bottom>
     </border>
     <border>
+      <left/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFAAAAAA"/>
       </left>
@@ -1046,6 +1001,48 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1077,9 +1074,47 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1110,11 +1145,78 @@
       <bottom/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
       </bottom>
     </border>
     <border>
@@ -1184,6 +1286,30 @@
       <bottom/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFD8D8D8"/>
@@ -1259,184 +1385,6 @@
       <top/>
     </border>
     <border>
-      <left/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFAAAAAA"/>
       </left>
@@ -1463,14 +1411,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1482,25 +1427,34 @@
     <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1512,12 +1466,24 @@
     <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1526,60 +1492,135 @@
     </xf>
     <xf borderId="5" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="6" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="9" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="7" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="16" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="22" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="23" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -1587,330 +1628,240 @@
     <xf borderId="5" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="10" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="6" fillId="2" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="26" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="27" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="28" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="28" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="28" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="17" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="28" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="30" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="20" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="31" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="32" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="33" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="17" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="32" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="34" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="34" fillId="4" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="32" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="33" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="31" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="35" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="36" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="35" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="37" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="37" fillId="4" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="36" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="35" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="36" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="35" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="38" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="39" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="20" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="21" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="40" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="41" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="20" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="40" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="22" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="42" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="22" fillId="3" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="42" fillId="4" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="21" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="21" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="24" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="41" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="40" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="41" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="28" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="31" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="31" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="31" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="23" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="25" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="25" fillId="3" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="24" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="23" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="24" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="26" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="43" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="27" fillId="2" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="28" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="29" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="30" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="30" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="44" fillId="2" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="45" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="46" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="47" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="47" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="31" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="32" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="48" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="49" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="33" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="50" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="51" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="35" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="37" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="38" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="36" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="36" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="36" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="40" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="41" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="42" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="42" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="40" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="4" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="43" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="44" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="42" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="42" fillId="4" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="36" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="45" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="46" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="36" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="36" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="36" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="48" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="42" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="42" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="49" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="50" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="42" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="36" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="51" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="52" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="53" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1962,32 +1913,32 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="10"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="11"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="12"/>
@@ -1995,887 +1946,887 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
-      <c r="N2" s="15"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="11"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14" t="s">
-        <v>2</v>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="15"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="11"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14" t="s">
-        <v>3</v>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="15"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="18"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="24"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="21" t="s">
+      <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="22" t="s">
-        <v>6</v>
+      <c r="B6" s="26"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
-      <c r="K7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="22" t="s">
-        <v>9</v>
+      <c r="K7" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
-      <c r="K8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="22" t="s">
-        <v>11</v>
+      <c r="K8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="8"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="18"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="18"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="24"/>
     </row>
     <row r="11" ht="39.0" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="30" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="C11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="D11" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="E11" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="F11" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="G11" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="H11" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="I11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="J11" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="K11" s="42" t="s">
         <v>24</v>
       </c>
+      <c r="L11" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="33" t="s">
+      <c r="A12" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="B12" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="C12" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="D12" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="E12" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="F12" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="35" t="str">
+      <c r="G12" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="53" t="str">
         <f t="shared" ref="N12:N13" si="1">ROUND(SUMIF(B12:L12,"&gt;0")*M12/12,2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="33" t="s">
+      <c r="A13" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="B13" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="C13" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="D13" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="33" t="s">
+      <c r="E13" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="34" t="s">
+      <c r="F13" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="35" t="str">
+      <c r="G13" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="53" t="str">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="38"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="65"/>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="41" t="str">
+      <c r="A15" s="6"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="73" t="str">
         <f>SUM(N12:N13)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="18"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="24"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="18"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="24"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="47"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="18"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="83"/>
+      <c r="G18" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="86"/>
+      <c r="K18" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="86"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="24"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="54"/>
-      <c r="J19" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="57"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="18"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="99"/>
+      <c r="J19" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="102"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="K20" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="67"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="18"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="108" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="109"/>
+      <c r="J20" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" s="112"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="K21" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="L21" s="67"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="18"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="113"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="109"/>
+      <c r="J21" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="112"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="24"/>
     </row>
     <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="18"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="113"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="109"/>
+      <c r="J22" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="112"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="24"/>
     </row>
     <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="69"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="113"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="109"/>
+      <c r="J23" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="112"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="115"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="K24" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="L24" s="67"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="18"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="113"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="109"/>
+      <c r="J24" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="L24" s="112"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="24"/>
     </row>
     <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="K25" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="L25" s="67"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="18"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="113"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" s="109"/>
+      <c r="J25" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="111" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" s="112"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="24"/>
     </row>
     <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="K26" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="L26" s="67"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="18"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="113"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="109"/>
+      <c r="J26" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="112"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="24"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="H27" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="K27" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="L27" s="67"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="18"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="113"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="109"/>
+      <c r="J27" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="L27" s="112"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="24"/>
     </row>
     <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="K28" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="L28" s="67"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="18"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="113"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="I28" s="109"/>
+      <c r="J28" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="L28" s="112"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="24"/>
     </row>
     <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="K29" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="L29" s="67"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="18"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="113"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="109"/>
+      <c r="J29" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="111" t="s">
+        <v>154</v>
+      </c>
+      <c r="L29" s="112"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="24"/>
     </row>
     <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="G30" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="K30" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="L30" s="78"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="18"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="118"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="120" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="121" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" s="122" t="s">
+        <v>165</v>
+      </c>
+      <c r="I30" s="123"/>
+      <c r="J30" s="124" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="L30" s="126"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="24"/>
     </row>
     <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="81">
+      <c r="A31" s="6"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="130">
         <f>SUM(F19:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80">
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128">
         <f>SUM(J19:J30)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80">
+      <c r="K31" s="128"/>
+      <c r="L31" s="128">
         <f>SUM(L19:L30)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="18"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="24"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="82" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="83" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="84"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="133"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="C33" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="N33" s="86">
+      <c r="A33" s="6"/>
+      <c r="C33" s="132" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="134"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="N33" s="135">
         <f>ROUND(F31+J31-L31,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="88"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="132" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="137"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="89"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="90"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="92"/>
+      <c r="A35" s="138"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="132" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="139"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="139"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="139"/>
+      <c r="K35" s="139"/>
+      <c r="L35" s="139"/>
+      <c r="M35" s="139"/>
+      <c r="N35" s="141"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="93"/>
-      <c r="B36" s="94" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="96"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="92"/>
+      <c r="A36" s="142"/>
+      <c r="B36" s="143" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="144" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" s="145"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="139"/>
+      <c r="K36" s="139"/>
+      <c r="L36" s="139"/>
+      <c r="M36" s="139"/>
+      <c r="N36" s="141"/>
     </row>
     <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="93"/>
-      <c r="C37" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="96"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="97" t="str">
+      <c r="A37" s="142"/>
+      <c r="C37" s="144" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37" s="145"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
+      <c r="K37" s="139"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="147" t="str">
         <f>IF(N15-N33&gt;=0,"Net Due to Charter School:","Net Due to School District:")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N37" s="98" t="str">
+      <c r="N37" s="150" t="str">
         <f>ROUND(ABS(N15-N33),2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="89"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
+      <c r="A38" s="138"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="139"/>
+      <c r="K38" s="139"/>
+      <c r="L38" s="139"/>
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
@@ -3878,851 +3829,851 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="7"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" s="8"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="100"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="8"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="14" t="s">
-        <v>130</v>
+      <c r="F3" s="16" t="s">
+        <v>2</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="15"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="8"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="14" t="s">
-        <v>131</v>
+      <c r="F4" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="15"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
-      <c r="K5" s="103"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="22" t="s">
-        <v>6</v>
+      <c r="A6" s="6"/>
+      <c r="B6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="105"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="106"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="114"/>
-      <c r="K8" s="111" t="s">
-        <v>135</v>
+      <c r="A8" s="35"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="47"/>
+      <c r="K8" s="44" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="106"/>
-      <c r="B9" s="115" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="115" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="120" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" s="120" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" s="115" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="121" t="s">
-        <v>141</v>
+      <c r="A9" s="35"/>
+      <c r="B9" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="106"/>
-      <c r="B10" s="115" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="56"/>
+      <c r="F10" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" customHeight="1">
+      <c r="A11" s="35"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="68"/>
+      <c r="I11" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" customHeight="1">
+      <c r="A12" s="35"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="75"/>
+      <c r="F12" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="35"/>
+      <c r="B13" s="80">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="92"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="35"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="90"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" customHeight="1">
+      <c r="A15" s="35"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="114" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="116"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="35"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="E16" s="75"/>
+      <c r="F16" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="123" t="s">
+      <c r="G16" s="77"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="118"/>
-      <c r="F10" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="120" t="s">
-        <v>139</v>
-      </c>
-      <c r="I10" s="124" t="s">
-        <v>147</v>
-      </c>
-      <c r="J10" s="115" t="s">
-        <v>148</v>
-      </c>
-      <c r="K10" s="111" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="106"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="121" t="s">
-        <v>149</v>
-      </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128" t="s">
-        <v>150</v>
-      </c>
-      <c r="J11" s="121" t="s">
-        <v>151</v>
-      </c>
-      <c r="K11" s="121" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="106"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="130" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="131"/>
-      <c r="F12" s="132" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" s="133"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="132" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="106"/>
-      <c r="B13" s="135">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="136" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="138"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="141" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="J13" s="136" t="s">
-        <v>160</v>
-      </c>
-      <c r="K13" s="142"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="106"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="137" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="132" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" s="140"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="132" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="106"/>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="143" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="144"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="106"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="130" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132" t="s">
-        <v>166</v>
-      </c>
-      <c r="G16" s="133"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="132" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="106"/>
-      <c r="B17" s="135">
+      <c r="A17" s="35"/>
+      <c r="B17" s="80">
         <f>B13+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="92"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="35"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="88"/>
+      <c r="F18" s="129" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="90"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="35"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="137" t="s">
+      <c r="E19" s="116"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="35"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="138"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="141" t="s">
+      <c r="E20" s="75"/>
+      <c r="F20" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="I17" s="141" t="s">
+      <c r="G20" s="77"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="J17" s="136" t="s">
-        <v>172</v>
-      </c>
-      <c r="K17" s="142"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="106"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="138"/>
-      <c r="F18" s="146" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="140"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="132" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="106"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="143" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="144"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="106"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="130" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="131"/>
-      <c r="F20" s="132" t="s">
-        <v>178</v>
-      </c>
-      <c r="G20" s="133"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="132" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="106"/>
-      <c r="B21" s="135">
+      <c r="A21" s="35"/>
+      <c r="B21" s="80">
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="92"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="35"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="88"/>
+      <c r="F22" s="129" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="90"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="D21" s="137" t="s">
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="35"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="E21" s="138"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="141" t="s">
+      <c r="E23" s="116"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="35"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="I21" s="141" t="s">
+      <c r="E24" s="75"/>
+      <c r="F24" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="J21" s="136" t="s">
+      <c r="G24" s="77"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="K21" s="142"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="106"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="137" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" s="138"/>
-      <c r="F22" s="146" t="s">
-        <v>186</v>
-      </c>
-      <c r="G22" s="140"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="132" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="106"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="143" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" s="144"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="106"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="130" t="s">
-        <v>189</v>
-      </c>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132" t="s">
-        <v>190</v>
-      </c>
-      <c r="G24" s="133"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="132" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="106"/>
-      <c r="B25" s="135">
+      <c r="A25" s="35"/>
+      <c r="B25" s="80">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C25" s="136" t="s">
+      <c r="C25" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="I25" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" s="92"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" s="35"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="88"/>
+      <c r="F26" s="129" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="137" t="s">
+      <c r="G26" s="90"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="138"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="141" t="s">
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="A27" s="35"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="I25" s="141" t="s">
+      <c r="E27" s="116"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+    </row>
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="A28" s="35"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="J25" s="136" t="s">
+      <c r="E28" s="75"/>
+      <c r="F28" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="K25" s="142"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="106"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="137" t="s">
-        <v>197</v>
-      </c>
-      <c r="E26" s="138"/>
-      <c r="F26" s="146" t="s">
+      <c r="G28" s="77"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="G26" s="140"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="132" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="106"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143" t="s">
-        <v>200</v>
-      </c>
-      <c r="E27" s="144"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="142"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="106"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="130" t="s">
-        <v>201</v>
-      </c>
-      <c r="E28" s="131"/>
-      <c r="F28" s="132" t="s">
-        <v>202</v>
-      </c>
-      <c r="G28" s="133"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="132" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="106"/>
-      <c r="B29" s="135">
+      <c r="A29" s="35"/>
+      <c r="B29" s="80">
         <f>B25+1</f>
         <v>5</v>
       </c>
-      <c r="C29" s="136" t="s">
+      <c r="C29" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="91" t="s">
+        <v>201</v>
+      </c>
+      <c r="I29" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="J29" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="92"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" s="35"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="137" t="s">
+      <c r="E30" s="88"/>
+      <c r="F30" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="138"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="141" t="s">
+      <c r="G30" s="90"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="I29" s="141" t="s">
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="35"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="J29" s="136" t="s">
+      <c r="E31" s="116"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="A32" s="35"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="K29" s="142"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="106"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="137" t="s">
+      <c r="E32" s="75"/>
+      <c r="F32" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="E30" s="138"/>
-      <c r="F30" s="146" t="s">
+      <c r="G32" s="77"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="G30" s="140"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="132" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="106"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="143" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="144"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="142"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="106"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="130" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132" t="s">
-        <v>214</v>
-      </c>
-      <c r="G32" s="133"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="132" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="106"/>
-      <c r="B33" s="135">
+      <c r="A33" s="35"/>
+      <c r="B33" s="80">
         <f>B29+1</f>
         <v>6</v>
       </c>
-      <c r="C33" s="136" t="s">
+      <c r="C33" s="81" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="I33" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="J33" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="D33" s="137" t="s">
+      <c r="K33" s="92"/>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" s="35"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="E33" s="138"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="141" t="s">
+      <c r="E34" s="88"/>
+      <c r="F34" s="129" t="s">
         <v>218</v>
       </c>
-      <c r="I33" s="141" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="J33" s="136" t="s">
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="A35" s="35"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="K33" s="142"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="106"/>
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="137" t="s">
+      <c r="E35" s="116"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
+      <c r="A36" s="35"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="E34" s="138"/>
-      <c r="F34" s="146" t="s">
+      <c r="E36" s="75"/>
+      <c r="F36" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="G34" s="140"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="135"/>
-      <c r="K34" s="132" t="s">
+      <c r="G36" s="77"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="76" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="106"/>
-      <c r="B35" s="142"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="143" t="s">
-        <v>224</v>
-      </c>
-      <c r="E35" s="144"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="142"/>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="106"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="130" t="s">
-        <v>225</v>
-      </c>
-      <c r="E36" s="131"/>
-      <c r="F36" s="132" t="s">
-        <v>226</v>
-      </c>
-      <c r="G36" s="133"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
-      <c r="J36" s="129"/>
-      <c r="K36" s="132" t="s">
-        <v>227</v>
-      </c>
-    </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="106"/>
-      <c r="B37" s="135">
+      <c r="A37" s="35"/>
+      <c r="B37" s="80">
         <f>B33+1</f>
         <v>7</v>
       </c>
-      <c r="C37" s="136" t="s">
+      <c r="C37" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>226</v>
+      </c>
+      <c r="E37" s="88"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="I37" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="D37" s="137" t="s">
+      <c r="J37" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="E37" s="138"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="140"/>
-      <c r="H37" s="141" t="s">
+      <c r="K37" s="92"/>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="35"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="87" t="s">
         <v>230</v>
       </c>
-      <c r="I37" s="141" t="s">
+      <c r="E38" s="88"/>
+      <c r="F38" s="129" t="s">
         <v>231</v>
       </c>
-      <c r="J37" s="136" t="s">
+      <c r="G38" s="90"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="K37" s="142"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="106"/>
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="137" t="s">
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" s="35"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="114" t="s">
         <v>233</v>
       </c>
-      <c r="E38" s="138"/>
-      <c r="F38" s="146" t="s">
+      <c r="E39" s="116"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
+      <c r="A40" s="35"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="G38" s="140"/>
-      <c r="H38" s="135"/>
-      <c r="I38" s="135"/>
-      <c r="J38" s="135"/>
-      <c r="K38" s="132" t="s">
+      <c r="E40" s="75"/>
+      <c r="F40" s="76" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="106"/>
-      <c r="B39" s="142"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="143" t="s">
+      <c r="G40" s="77"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="E39" s="144"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="142"/>
-      <c r="K39" s="142"/>
-    </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="106"/>
-      <c r="B40" s="129"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="130" t="s">
-        <v>237</v>
-      </c>
-      <c r="E40" s="131"/>
-      <c r="F40" s="132" t="s">
-        <v>238</v>
-      </c>
-      <c r="G40" s="133"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="134"/>
-      <c r="J40" s="129"/>
-      <c r="K40" s="132" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="106"/>
-      <c r="B41" s="135">
+      <c r="A41" s="35"/>
+      <c r="B41" s="80">
         <f>B37+1</f>
         <v>8</v>
       </c>
-      <c r="C41" s="136" t="s">
+      <c r="C41" s="81" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41" s="87" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" s="88"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="91" t="s">
+        <v>239</v>
+      </c>
+      <c r="I41" s="91" t="s">
         <v>240</v>
       </c>
-      <c r="D41" s="137" t="s">
+      <c r="J41" s="81" t="s">
         <v>241</v>
       </c>
-      <c r="E41" s="138"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="141" t="s">
-        <v>242</v>
-      </c>
-      <c r="I41" s="141" t="s">
-        <v>243</v>
-      </c>
-      <c r="J41" s="136" t="s">
-        <v>244</v>
-      </c>
-      <c r="K41" s="142"/>
+      <c r="K41" s="92"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="147"/>
-      <c r="B42" s="135"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="137" t="s">
+      <c r="A42" s="146"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="E42" s="138"/>
-      <c r="F42" s="146" t="s">
+      <c r="E42" s="88"/>
+      <c r="F42" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="G42" s="140"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="135"/>
-      <c r="J42" s="135"/>
-      <c r="K42" s="132" t="s">
+      <c r="G42" s="90"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="76" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="148"/>
       <c r="B43" s="149"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="143" t="s">
+      <c r="C43" s="92"/>
+      <c r="D43" s="114" t="s">
         <v>248</v>
       </c>
-      <c r="E43" s="144"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="145"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="150"/>
-      <c r="B44" s="150"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="150"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="150"/>
-      <c r="J44" s="150"/>
-      <c r="K44" s="150"/>
+      <c r="A44" s="151"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="151"/>
     </row>
     <row r="45" ht="15.75" customHeight="1"/>
     <row r="46" ht="15.75" customHeight="1"/>

--- a/api/Templates/CSFunding 2018-19 Invoice Summary - Template.xlsx
+++ b/api/Templates/CSFunding 2018-19 Invoice Summary - Template.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="261">
   <si>
     <t>Pennsylvania Cyber Charter School</t>
   </si>
@@ -20,16 +20,7 @@
     <t>INVOICE FOR THE ${FirstYear}-${SecondYear} SCHOOL YEAR</t>
   </si>
   <si>
-    <t>Individual Student Information Sheet</t>
-  </si>
-  <si>
-    <t>For the Months of July ${FirstYear} to ${AsOfMonth} ${AsOfYear}</t>
-  </si>
-  <si>
     <t>Summary Information Sheet</t>
-  </si>
-  <si>
-    <t>${SchoolDistrict.Aun}</t>
   </si>
   <si>
     <r>
@@ -80,15 +71,18 @@
     </r>
   </si>
   <si>
+    <t>${SchoolDistrict.Aun}</t>
+  </si>
+  <si>
     <t>Invoice Prep Date:</t>
   </si>
   <si>
+    <t>${Prepared}</t>
+  </si>
+  <si>
     <t>${SchoolDistrict.Name}</t>
   </si>
   <si>
-    <t>${Prepared}</t>
-  </si>
-  <si>
     <t>Date Sent to SD:</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
   </si>
   <si>
     <t>${ToPDE}</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
   </si>
   <si>
     <t>JUL
@@ -155,94 +146,361 @@
 Due</t>
   </si>
   <si>
+    <t>Nonspecial Education</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.July}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.August}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.September}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.October}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.November}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.December}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.January}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.February}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.March}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.April}</t>
+  </si>
+  <si>
+    <t>${RegularEnrollments.May}</t>
+  </si>
+  <si>
+    <t>${SchoolDistrict.RegularRate}</t>
+  </si>
+  <si>
+    <t>Special Education</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.July}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.August}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.September}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.October}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.November}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.December}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.January}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.February}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.March}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.April}</t>
+  </si>
+  <si>
+    <t>${SpecialEnrollments.May}</t>
+  </si>
+  <si>
+    <t>${SchoolDistrict.SpecialRate}</t>
+  </si>
+  <si>
+    <t>Total Amount Due Year to Date:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> School District</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PDE Subsidy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Refund from</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Direct Payment</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Charter School</t>
+  </si>
+  <si>
+    <t>July, ${FirstYear}</t>
+  </si>
+  <si>
+    <t>${Transactions.July.Payment.CheckAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.July.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.July.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.July.Payment.UniPayAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.July.Refund}</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>${Transactions.August.Payment.CheckAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.August.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.August.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.August.Payment.UniPayAmount}</t>
+  </si>
+  <si>
+    <t>Individual Student Information Sheet</t>
+  </si>
+  <si>
+    <t>For the Months of July ${FirstYear} to ${AsOfMonth} ${AsOfYear}</t>
+  </si>
+  <si>
+    <t>${Transactions.August.Refund}</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>${Transactions.September.Payment.CheckAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.September.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.September.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.September.Payment.UniPayAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.September.Refund}</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>${Transactions.October.Payment.CheckAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.October.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.October.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.October.Payment.UniPayAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.October.Refund}</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>${Transactions.November.Payment.CheckAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.November.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.November.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.November.Payment.UniPayAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.November.Refund}</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>${Transactions.December.Payment.CheckAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.December.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.December.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.December.Payment.UniPayAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.December.Refund}</t>
+  </si>
+  <si>
+    <t>January, ${SecondYear}</t>
+  </si>
+  <si>
+    <t>${Transactions.January.Payment.CheckAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.January.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.January.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.January.Payment.UniPayAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.January.Refund}</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>${Transactions.February.Payment.CheckAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.February.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.February.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.February.Payment.UniPayAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.February.Refund}</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>${Transactions.March.Payment.CheckAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.March.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.March.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.March.Payment.UniPayAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.March.Refund}</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>${Transactions.April.Payment.CheckAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.April.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.April.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.April.Payment.UniPayAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.April.Refund}</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>${Transactions.May.Payment.CheckAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.May.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.May.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.May.Payment.UniPayAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.May.Refund}</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>${Transactions.June.Payment.CheckAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.June.Payment.CheckNumber}</t>
+  </si>
+  <si>
+    <t>${Transactions.June.Payment.Date}</t>
+  </si>
+  <si>
+    <t>${Transactions.June.Payment.UniPayAmount}</t>
+  </si>
+  <si>
+    <t>${Transactions.June.Refund}</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
     <t xml:space="preserve">CS Student </t>
   </si>
   <si>
     <t>Last Day</t>
   </si>
   <si>
+    <t>Please Remit Payment to:</t>
+  </si>
+  <si>
     <t>Date of IEP</t>
   </si>
   <si>
     <t>Sequential</t>
   </si>
   <si>
-    <t>Nonspecial Education</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.July}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.August}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.September}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.October}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.November}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.December}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.January}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.February}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.March}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.April}</t>
-  </si>
-  <si>
-    <t>${RegularEnrollments.May}</t>
-  </si>
-  <si>
-    <t>${SchoolDistrict.RegularRate}</t>
-  </si>
-  <si>
-    <t>Special Education</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.July}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.August}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.September}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.October}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.November}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.December}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.January}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.February}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.March}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.April}</t>
-  </si>
-  <si>
-    <t>${SpecialEnrollments.May}</t>
-  </si>
-  <si>
-    <t>${SchoolDistrict.SpecialRate}</t>
+    <t>Business Office, Suite A130</t>
+  </si>
+  <si>
+    <t>Total Paid to Date for 2018-2019 School Year:</t>
   </si>
   <si>
     <t>Enrollment</t>
@@ -251,6 +509,9 @@
     <t>First Day</t>
   </si>
   <si>
+    <t>652 Midland Avenue</t>
+  </si>
+  <si>
     <t>Educated</t>
   </si>
   <si>
@@ -266,6 +527,9 @@
     <t>PASecureID</t>
   </si>
   <si>
+    <t>Midland, PA 15059</t>
+  </si>
+  <si>
     <t>Student Name and Address</t>
   </si>
   <si>
@@ -281,6 +545,15 @@
     <t>Education</t>
   </si>
   <si>
+    <t>Please Direct any questions to:</t>
+  </si>
+  <si>
+    <t>Child Accounting: 724-888-7780</t>
+  </si>
+  <si>
+    <t>Finance: 724-888-7775</t>
+  </si>
+  <si>
     <t>Form Sent to SD:</t>
   </si>
   <si>
@@ -293,57 +566,21 @@
     <t>Prior</t>
   </si>
   <si>
-    <t>Total Amount Due Year to Date:</t>
-  </si>
-  <si>
     <t>${Students[0].FullName}</t>
   </si>
   <si>
-    <t xml:space="preserve"> School District</t>
-  </si>
-  <si>
-    <t>Check</t>
-  </si>
-  <si>
     <t>${Students[0].DateOfBirth}</t>
   </si>
   <si>
     <t>${Students[0].CurrentIep}</t>
   </si>
   <si>
-    <t xml:space="preserve">   PDE Subsidy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Refund from</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>${Students[0].PASecuredID}</t>
   </si>
   <si>
     <t>${Students[0].Address1}</t>
   </si>
   <si>
-    <t xml:space="preserve"> Direct Payment</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Charter School</t>
-  </si>
-  <si>
-    <t>July, ${FirstYear}</t>
-  </si>
-  <si>
     <t>${Students[0].FirstDay}</t>
   </si>
   <si>
@@ -365,138 +602,6 @@
     <t>${Students[0].Address3}</t>
   </si>
   <si>
-    <t>${Transactions.July.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.July.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.July.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.July.Refund}</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>${Transactions.August.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.August.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.August.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.August.Refund}</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>${Transactions.September.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.September.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.September.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.September.Refund}</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>${Transactions.October.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.October.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.October.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.October.Refund}</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>${Transactions.November.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.November.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.November.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.November.Refund}</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>${Transactions.December.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.December.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.December.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.December.Refund}</t>
-  </si>
-  <si>
-    <t>January, ${SecondYear}</t>
-  </si>
-  <si>
-    <t>${Transactions.January.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.January.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.January.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.January.Refund}</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>${Transactions.February.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.February.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.February.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.February.Refund}</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>${Transactions.March.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.March.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.March.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.March.Refund}</t>
-  </si>
-  <si>
     <t>${Students[1].FullName}</t>
   </si>
   <si>
@@ -506,39 +611,6 @@
     <t>${Students[1].CurrentIep}</t>
   </si>
   <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>${Transactions.April.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.April.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.April.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.April.Refund}</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>${Transactions.May.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.May.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.May.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.May.Refund}</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
     <t>${Students[1].PASecuredID}</t>
   </si>
   <si>
@@ -560,18 +632,6 @@
     <t>${Students[1].Grade}</t>
   </si>
   <si>
-    <t>${Transactions.June.Payment.Amount}</t>
-  </si>
-  <si>
-    <t>${Transaction.June.Payment.CheckNumber}</t>
-  </si>
-  <si>
-    <t>${Transactions.June.Payment.Date}</t>
-  </si>
-  <si>
-    <t>${Transactions.June.Refund}</t>
-  </si>
-  <si>
     <t>${Students[1].FormerIep}</t>
   </si>
   <si>
@@ -602,9 +662,6 @@
     <t>${Students[2].IsSpecialEducation}</t>
   </si>
   <si>
-    <t>Please Remit Payment to:</t>
-  </si>
-  <si>
     <t>${Students[2].Address2}</t>
   </si>
   <si>
@@ -641,9 +698,6 @@
     <t>${Students[3].IsSpecialEducation}</t>
   </si>
   <si>
-    <t>Business Office, Suite A130</t>
-  </si>
-  <si>
     <t>${Students[3].Address2}</t>
   </si>
   <si>
@@ -662,9 +716,6 @@
     <t>${Students[4].DateOfBirth}</t>
   </si>
   <si>
-    <t>Total Paid to Date for 2018-2019 School Year:</t>
-  </si>
-  <si>
     <t>${Students[4].CurrentIep}</t>
   </si>
   <si>
@@ -704,9 +755,6 @@
     <t>${Students[5].CurrentIep}</t>
   </si>
   <si>
-    <t>652 Midland Avenue</t>
-  </si>
-  <si>
     <t>${Students[5].PASecuredID}</t>
   </si>
   <si>
@@ -743,9 +791,6 @@
     <t>${Students[6].CurrentIep}</t>
   </si>
   <si>
-    <t>Midland, PA 15059</t>
-  </si>
-  <si>
     <t>${Students[6].PASecuredID}</t>
   </si>
   <si>
@@ -795,15 +840,6 @@
   </si>
   <si>
     <t>${Students[7].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>Please Direct any questions to:</t>
-  </si>
-  <si>
-    <t>Child Accounting: 724-888-7780</t>
-  </si>
-  <si>
-    <t>Finance: 724-888-7775</t>
   </si>
   <si>
     <t>${Students[7].Address2}</t>
@@ -837,17 +873,6 @@
       <b/>
       <sz val="11.0"/>
       <color rgb="FF800000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF800000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -873,13 +898,14 @@
       <name val="Arial"/>
     </font>
     <font>
-      <i/>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color rgb="FF800000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -895,6 +921,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <i/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="9.0"/>
       <color rgb="FF172B4D"/>
@@ -903,6 +935,10 @@
     <font>
       <sz val="9.0"/>
       <color rgb="FF172B4D"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -921,14 +957,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAEAEA"/>
-        <bgColor rgb="FFEAEAEA"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFEAEAEA"/>
+        <bgColor rgb="FFEAEAEA"/>
       </patternFill>
     </fill>
   </fills>
@@ -987,7 +1023,12 @@
       </bottom>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -995,54 +1036,14 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFAAAAAA"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1051,12 +1052,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1065,56 +1061,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1145,78 +1094,11 @@
       <bottom/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
       </bottom>
     </border>
     <border>
@@ -1286,28 +1168,33 @@
       <bottom/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
+      <left/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFEAEAEA"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
     </border>
     <border>
       <left/>
@@ -1342,13 +1229,71 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
       <left/>
       <top/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
     </border>
     <border>
       <left/>
       <top/>
       <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1376,6 +1321,16 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFAAAAAA"/>
       </left>
       <top/>
@@ -1385,6 +1340,87 @@
       <top/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFAAAAAA"/>
       </left>
@@ -1418,450 +1454,450 @@
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="13" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="24" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf borderId="14" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="26" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="27" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="15" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="16" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="17" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="20" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="21" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="21" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="21" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="20" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="23" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="24" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="25" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="26" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="28" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="28" fillId="3" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="29" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="30" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="16" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="16" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="25" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="25" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="16" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="25" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="25" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="28" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="31" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="32" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="31" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="28" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="28" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="33" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="34" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="35" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="31" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="37" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="36" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="38" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="31" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="39" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="33" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="39" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="31" fillId="4" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="40" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="41" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="42" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="43" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="44" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="36" fillId="4" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="45" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="46" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="31" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="31" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="30" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="48" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="36" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="31" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="32" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="33" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="32" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="34" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="34" fillId="4" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="33" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="32" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="33" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="31" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="35" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="36" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="35" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="37" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="37" fillId="4" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="36" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="35" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="36" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="35" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="38" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="49" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="39" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="50" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="36" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="40" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="41" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="40" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="42" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="42" fillId="4" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="41" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="40" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="41" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="28" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="25" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="31" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="43" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="44" fillId="2" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="45" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="46" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="47" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="47" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="48" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="49" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="50" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="51" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="52" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="53" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1913,920 +1949,920 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="4" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="13"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="17"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="28" t="s">
+    </row>
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="30" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="28" t="s">
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="30" t="s">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="28" t="s">
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" ht="39.0" customHeight="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="30" t="s">
+      <c r="C11" s="27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="24"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" ht="39.0" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42" t="s">
+      <c r="D11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="F11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="G11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="H11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="I11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="J11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="K11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="L11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="M11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="N11" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="42" t="s">
+    </row>
+    <row r="12" ht="13.5" customHeight="1">
+      <c r="A12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="42" t="s">
+      <c r="B12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="48" t="s">
+      <c r="C12" s="30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="49" t="s">
+      <c r="D12" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="I12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="J12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="K12" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="L12" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="M12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="53" t="str">
+      <c r="N12" s="33" t="str">
         <f t="shared" ref="N12:N13" si="1">ROUND(SUMIF(B12:L12,"&gt;0")*M12/12,2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="I13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="J13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="K13" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="L13" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="M13" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="53" t="str">
+      <c r="N13" s="33" t="str">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="65"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="36"/>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="73" t="str">
+      <c r="A15" s="21"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="39" t="str">
         <f>SUM(N12:N13)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="24"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="28" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="45"/>
+      <c r="K18" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="45"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="55"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" ht="13.5" customHeight="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="64"/>
+      <c r="J20" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="70"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" ht="13.5" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="79" t="s">
+      <c r="D21" s="73"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="28" t="s">
+      <c r="G21" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="64"/>
+      <c r="J21" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="28" t="s">
+      <c r="K21" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="24"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="82" t="s">
+      <c r="L21" s="70"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1">
+      <c r="A22" s="21"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84" t="s">
+      <c r="D22" s="73"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="85" t="s">
+      <c r="I22" s="64"/>
+      <c r="J22" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="85" t="s">
+      <c r="K22" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="84" t="s">
+      <c r="L22" s="70"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" ht="13.5" customHeight="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="86"/>
-      <c r="K18" s="84" t="s">
+      <c r="D23" s="73"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="L18" s="86"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="24"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="93" t="s">
+      <c r="G23" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96" t="s">
+      <c r="H23" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="64"/>
+      <c r="J23" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" s="70"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="76"/>
+    </row>
+    <row r="24" ht="13.5" customHeight="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="64"/>
+      <c r="J24" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="97" t="s">
+      <c r="K24" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="98" t="s">
+      <c r="L24" s="70"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" ht="13.5" customHeight="1">
+      <c r="A25" s="21"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="101" t="s">
+      <c r="D25" s="73"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="L19" s="102"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="24"/>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="103" t="s">
+      <c r="G25" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="106" t="s">
+      <c r="H25" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="107" t="s">
+      <c r="I25" s="64"/>
+      <c r="J25" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="108" t="s">
+      <c r="K25" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="111" t="s">
+      <c r="L25" s="70"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1">
+      <c r="A26" s="21"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="L20" s="112"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="24"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="28" t="s">
+      <c r="D26" s="73"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="106" t="s">
+      <c r="G26" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="107" t="s">
+      <c r="H26" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="H21" s="108" t="s">
+      <c r="I26" s="64"/>
+      <c r="J26" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110" t="s">
-        <v>108</v>
-      </c>
-      <c r="K21" s="111" t="s">
+      <c r="K26" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="L21" s="112"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="24"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="28" t="s">
+      <c r="L26" s="70"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="113"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="106" t="s">
+      <c r="D27" s="73"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="107" t="s">
+      <c r="G27" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="108" t="s">
+      <c r="H27" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="I22" s="109"/>
-      <c r="J22" s="110" t="s">
-        <v>113</v>
-      </c>
-      <c r="K22" s="111" t="s">
+      <c r="I27" s="64"/>
+      <c r="J27" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="L22" s="112"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="24"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="28" t="s">
+      <c r="K27" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="113"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="106" t="s">
+      <c r="L27" s="70"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" ht="13.5" customHeight="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="107" t="s">
+      <c r="D28" s="73"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="108" t="s">
+      <c r="G28" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="I23" s="109"/>
-      <c r="J23" s="110" t="s">
-        <v>118</v>
-      </c>
-      <c r="K23" s="111" t="s">
+      <c r="H28" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L23" s="112"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="115"/>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="28" t="s">
+      <c r="I28" s="64"/>
+      <c r="J28" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="113"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="106" t="s">
+      <c r="K28" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="107" t="s">
+      <c r="L28" s="70"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" ht="13.5" customHeight="1">
+      <c r="A29" s="21"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="108" t="s">
+      <c r="D29" s="73"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="I24" s="109"/>
-      <c r="J24" s="110" t="s">
-        <v>123</v>
-      </c>
-      <c r="K24" s="111" t="s">
+      <c r="G29" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="L24" s="112"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="24"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="28" t="s">
+      <c r="H29" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="106" t="s">
+      <c r="I29" s="64"/>
+      <c r="J29" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="107" t="s">
+      <c r="K29" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="108" t="s">
+      <c r="L29" s="70"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" ht="13.5" customHeight="1">
+      <c r="A30" s="21"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="I25" s="109"/>
-      <c r="J25" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="K25" s="111" t="s">
+      <c r="D30" s="80"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="L25" s="112"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="24"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="28" t="s">
+      <c r="G30" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="106" t="s">
+      <c r="H30" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="G26" s="107" t="s">
+      <c r="I30" s="85"/>
+      <c r="J30" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="108" t="s">
+      <c r="K30" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="I26" s="109"/>
-      <c r="J26" s="110" t="s">
-        <v>133</v>
-      </c>
-      <c r="K26" s="111" t="s">
-        <v>136</v>
-      </c>
-      <c r="L26" s="112"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="24"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="113"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="G27" s="107" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="109"/>
-      <c r="J27" s="110" t="s">
-        <v>138</v>
-      </c>
-      <c r="K27" s="111" t="s">
-        <v>141</v>
-      </c>
-      <c r="L27" s="112"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="24"/>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="113"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="G28" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="H28" s="108" t="s">
-        <v>148</v>
-      </c>
-      <c r="I28" s="109"/>
-      <c r="J28" s="110" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="L28" s="112"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="24"/>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="113"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="106" t="s">
-        <v>151</v>
-      </c>
-      <c r="G29" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" s="108" t="s">
-        <v>153</v>
-      </c>
-      <c r="I29" s="109"/>
-      <c r="J29" s="110" t="s">
-        <v>151</v>
-      </c>
-      <c r="K29" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="L29" s="112"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="24"/>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="118"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="120" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="121" t="s">
-        <v>164</v>
-      </c>
-      <c r="H30" s="122" t="s">
-        <v>165</v>
-      </c>
-      <c r="I30" s="123"/>
-      <c r="J30" s="124" t="s">
-        <v>163</v>
-      </c>
-      <c r="K30" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="L30" s="126"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="24"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="130">
+      <c r="A31" s="21"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="96">
         <f>SUM(F19:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="128">
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93">
         <f>SUM(J19:J30)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128">
+      <c r="K31" s="93"/>
+      <c r="L31" s="93">
         <f>SUM(L19:L30)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="15"/>
-      <c r="N31" s="24"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="132" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="133"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="102"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="C33" s="132" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="134"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="N33" s="135">
+      <c r="A33" s="21"/>
+      <c r="C33" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="104"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="N33" s="106">
         <f>ROUND(F31+J31-L31,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="136"/>
-      <c r="C34" s="132" t="s">
-        <v>211</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="137"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="111"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="138"/>
-      <c r="B35" s="136"/>
-      <c r="C35" s="132" t="s">
-        <v>224</v>
-      </c>
-      <c r="D35" s="139"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="139"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="139"/>
-      <c r="K35" s="139"/>
-      <c r="L35" s="139"/>
-      <c r="M35" s="139"/>
-      <c r="N35" s="141"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="115"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="119"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="142"/>
-      <c r="B36" s="143" t="s">
-        <v>242</v>
-      </c>
-      <c r="C36" s="144" t="s">
-        <v>243</v>
-      </c>
-      <c r="D36" s="145"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="139"/>
-      <c r="K36" s="139"/>
-      <c r="L36" s="139"/>
-      <c r="M36" s="139"/>
-      <c r="N36" s="141"/>
+      <c r="A36" s="121"/>
+      <c r="B36" s="122" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="123" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="124"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="119"/>
     </row>
     <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="142"/>
-      <c r="C37" s="144" t="s">
-        <v>244</v>
-      </c>
-      <c r="D37" s="145"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
-      <c r="K37" s="139"/>
-      <c r="L37" s="133"/>
-      <c r="M37" s="147" t="str">
+      <c r="A37" s="121"/>
+      <c r="C37" s="123" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="124"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="127" t="str">
         <f>IF(N15-N33&gt;=0,"Net Due to Charter School:","Net Due to School District:")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N37" s="150" t="str">
+      <c r="N37" s="129" t="str">
         <f>ROUND(ABS(N15-N33),2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="138"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
-      <c r="K38" s="139"/>
-      <c r="L38" s="139"/>
+      <c r="A38" s="113"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
@@ -3830,837 +3866,837 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="5"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="11"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="17"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="17"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="27"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="30" t="s">
-        <v>9</v>
+      <c r="A6" s="21"/>
+      <c r="B6" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="18" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="33"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="44" t="s">
-        <v>30</v>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="95"/>
+      <c r="I8" s="97" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="99"/>
+      <c r="K8" s="94" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="59" t="s">
-        <v>62</v>
+      <c r="A9" s="78"/>
+      <c r="B9" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="103"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="110" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="101" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="112" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="44" t="s">
-        <v>30</v>
+      <c r="A10" s="78"/>
+      <c r="B10" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="114" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="107"/>
+      <c r="F10" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="94" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="68"/>
-      <c r="I11" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="59" t="s">
-        <v>73</v>
+      <c r="A11" s="78"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="126"/>
+      <c r="I11" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="112" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="75"/>
-      <c r="F12" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="76" t="s">
-        <v>79</v>
+      <c r="A12" s="78"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="131" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="132"/>
+      <c r="F12" s="133" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="134"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="133" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="80">
+      <c r="A13" s="78"/>
+      <c r="B13" s="136">
         <v>1.0</v>
       </c>
-      <c r="C13" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="92"/>
+      <c r="C13" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="138" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="142" t="s">
+        <v>170</v>
+      </c>
+      <c r="I13" s="142" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="137" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="143"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="76" t="s">
-        <v>96</v>
+      <c r="A14" s="78"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="138" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="139"/>
+      <c r="F14" s="133" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="141"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="133" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="114" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="116"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="144" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="145"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="76" t="s">
-        <v>144</v>
+      <c r="A16" s="78"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="132"/>
+      <c r="F16" s="133" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="134"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="133" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="80">
+      <c r="A17" s="78"/>
+      <c r="B17" s="136">
         <f>B13+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="81" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="I17" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="J17" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="K17" s="92"/>
+      <c r="C17" s="137" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="138" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="139"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" s="142" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" s="137" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" s="143"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="129" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="76" t="s">
-        <v>167</v>
+      <c r="A18" s="78"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="138" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="139"/>
+      <c r="F18" s="147" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="141"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="133" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="114" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="144" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="145"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="76" t="s">
-        <v>171</v>
+      <c r="A20" s="78"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="131" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="132"/>
+      <c r="F20" s="133" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="134"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="133" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="B21" s="80">
+      <c r="A21" s="78"/>
+      <c r="B21" s="136">
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="91" t="s">
-        <v>174</v>
-      </c>
-      <c r="I21" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="J21" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="K21" s="92"/>
+      <c r="C21" s="137" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="138" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="139"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="142" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" s="137" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" s="143"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="87" t="s">
-        <v>178</v>
-      </c>
-      <c r="E22" s="88"/>
-      <c r="F22" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="90"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="76" t="s">
-        <v>180</v>
+      <c r="A22" s="78"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="138" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="139"/>
+      <c r="F22" s="147" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="141"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="133" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="114" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="144" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="145"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="G24" s="77"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="76" t="s">
-        <v>184</v>
+      <c r="A24" s="78"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="131" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="132"/>
+      <c r="F24" s="133" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="134"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="133" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="35"/>
-      <c r="B25" s="80">
+      <c r="A25" s="78"/>
+      <c r="B25" s="136">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C25" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="91" t="s">
-        <v>187</v>
-      </c>
-      <c r="I25" s="91" t="s">
-        <v>188</v>
-      </c>
-      <c r="J25" s="81" t="s">
-        <v>189</v>
-      </c>
-      <c r="K25" s="92"/>
+      <c r="C25" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="138" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="139"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="142" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" s="142" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" s="143"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="129" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" s="90"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="76" t="s">
-        <v>193</v>
+      <c r="A26" s="78"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" s="139"/>
+      <c r="F26" s="147" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="141"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="133" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="35"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="114" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="116"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="144" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="145"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="74" t="s">
-        <v>195</v>
-      </c>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="77"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="76" t="s">
-        <v>198</v>
+      <c r="A28" s="78"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="131" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28" s="132"/>
+      <c r="F28" s="133" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="134"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="133" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="35"/>
-      <c r="B29" s="80">
+      <c r="A29" s="78"/>
+      <c r="B29" s="136">
         <f>B25+1</f>
         <v>5</v>
       </c>
-      <c r="C29" s="81" t="s">
-        <v>199</v>
-      </c>
-      <c r="D29" s="87" t="s">
-        <v>200</v>
-      </c>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="I29" s="91" t="s">
-        <v>202</v>
-      </c>
-      <c r="J29" s="81" t="s">
-        <v>203</v>
-      </c>
-      <c r="K29" s="92"/>
+      <c r="C29" s="137" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="138" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="139"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="142" t="s">
+        <v>218</v>
+      </c>
+      <c r="I29" s="142" t="s">
+        <v>219</v>
+      </c>
+      <c r="J29" s="137" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" s="143"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="35"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="87" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="88"/>
-      <c r="F30" s="129" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="90"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="76" t="s">
-        <v>206</v>
+      <c r="A30" s="78"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="138" t="s">
+        <v>221</v>
+      </c>
+      <c r="E30" s="139"/>
+      <c r="F30" s="147" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="141"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="133" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="35"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="114" t="s">
-        <v>207</v>
-      </c>
-      <c r="E31" s="116"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="144" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" s="145"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="143"/>
+      <c r="K31" s="143"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="35"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="E32" s="75"/>
-      <c r="F32" s="76" t="s">
-        <v>209</v>
-      </c>
-      <c r="G32" s="77"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="76" t="s">
-        <v>210</v>
+      <c r="A32" s="78"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="131" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="132"/>
+      <c r="F32" s="133" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" s="134"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="133" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="35"/>
-      <c r="B33" s="80">
+      <c r="A33" s="78"/>
+      <c r="B33" s="136">
         <f>B29+1</f>
         <v>6</v>
       </c>
-      <c r="C33" s="81" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="I33" s="91" t="s">
-        <v>215</v>
-      </c>
-      <c r="J33" s="81" t="s">
-        <v>216</v>
-      </c>
-      <c r="K33" s="92"/>
+      <c r="C33" s="137" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" s="139"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="142" t="s">
+        <v>230</v>
+      </c>
+      <c r="I33" s="142" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33" s="137" t="s">
+        <v>232</v>
+      </c>
+      <c r="K33" s="143"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="35"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="87" t="s">
-        <v>217</v>
-      </c>
-      <c r="E34" s="88"/>
-      <c r="F34" s="129" t="s">
-        <v>218</v>
-      </c>
-      <c r="G34" s="90"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="76" t="s">
-        <v>219</v>
+      <c r="A34" s="78"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="138" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="139"/>
+      <c r="F34" s="147" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" s="141"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="133" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="35"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="114" t="s">
-        <v>220</v>
-      </c>
-      <c r="E35" s="116"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="144" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="145"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="143"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="35"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="E36" s="75"/>
-      <c r="F36" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="G36" s="77"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="76" t="s">
-        <v>223</v>
+      <c r="A36" s="78"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="131" t="s">
+        <v>237</v>
+      </c>
+      <c r="E36" s="132"/>
+      <c r="F36" s="133" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="134"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="133" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="35"/>
-      <c r="B37" s="80">
+      <c r="A37" s="78"/>
+      <c r="B37" s="136">
         <f>B33+1</f>
         <v>7</v>
       </c>
-      <c r="C37" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="D37" s="87" t="s">
-        <v>226</v>
-      </c>
-      <c r="E37" s="88"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="I37" s="91" t="s">
-        <v>228</v>
-      </c>
-      <c r="J37" s="81" t="s">
-        <v>229</v>
-      </c>
-      <c r="K37" s="92"/>
+      <c r="C37" s="137" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" s="138" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37" s="139"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="142" t="s">
+        <v>242</v>
+      </c>
+      <c r="I37" s="142" t="s">
+        <v>243</v>
+      </c>
+      <c r="J37" s="137" t="s">
+        <v>244</v>
+      </c>
+      <c r="K37" s="143"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="35"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="87" t="s">
-        <v>230</v>
-      </c>
-      <c r="E38" s="88"/>
-      <c r="F38" s="129" t="s">
-        <v>231</v>
-      </c>
-      <c r="G38" s="90"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="76" t="s">
-        <v>232</v>
+      <c r="A38" s="78"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="138" t="s">
+        <v>245</v>
+      </c>
+      <c r="E38" s="139"/>
+      <c r="F38" s="147" t="s">
+        <v>246</v>
+      </c>
+      <c r="G38" s="141"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="133" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="35"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="114" t="s">
-        <v>233</v>
-      </c>
-      <c r="E39" s="116"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
+      <c r="A39" s="78"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="144" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39" s="145"/>
+      <c r="F39" s="143"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="143"/>
+      <c r="K39" s="143"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="35"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="E40" s="75"/>
-      <c r="F40" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="G40" s="77"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="76" t="s">
-        <v>236</v>
+      <c r="A40" s="78"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="131" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40" s="132"/>
+      <c r="F40" s="133" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" s="134"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="133" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="35"/>
-      <c r="B41" s="80">
+      <c r="A41" s="78"/>
+      <c r="B41" s="136">
         <f>B37+1</f>
         <v>8</v>
       </c>
-      <c r="C41" s="81" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="E41" s="88"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="91" t="s">
-        <v>239</v>
-      </c>
-      <c r="I41" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="J41" s="81" t="s">
-        <v>241</v>
-      </c>
-      <c r="K41" s="92"/>
+      <c r="C41" s="137" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" s="138" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41" s="139"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="142" t="s">
+        <v>254</v>
+      </c>
+      <c r="I41" s="142" t="s">
+        <v>255</v>
+      </c>
+      <c r="J41" s="137" t="s">
+        <v>256</v>
+      </c>
+      <c r="K41" s="143"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="146"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="E42" s="88"/>
-      <c r="F42" s="129" t="s">
-        <v>246</v>
-      </c>
-      <c r="G42" s="90"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="76" t="s">
-        <v>247</v>
+      <c r="A42" s="148"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="138" t="s">
+        <v>257</v>
+      </c>
+      <c r="E42" s="139"/>
+      <c r="F42" s="147" t="s">
+        <v>258</v>
+      </c>
+      <c r="G42" s="141"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="133" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="148"/>
-      <c r="B43" s="149"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="114" t="s">
-        <v>248</v>
-      </c>
-      <c r="E43" s="116"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="92"/>
+      <c r="A43" s="149"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="144" t="s">
+        <v>260</v>
+      </c>
+      <c r="E43" s="145"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="143"/>
+      <c r="K43" s="143"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="151"/>

--- a/api/Templates/CSFunding 2018-19 Invoice Summary - Template.xlsx
+++ b/api/Templates/CSFunding 2018-19 Invoice Summary - Template.xlsx
@@ -20,67 +20,82 @@
     <t>INVOICE FOR THE ${FirstYear}-${SecondYear} SCHOOL YEAR</t>
   </si>
   <si>
+    <t>Individual Student Information Sheet</t>
+  </si>
+  <si>
+    <t>For the Months of July ${FirstYear} to ${ScopeMonth} ${ScopeYear}</t>
+  </si>
+  <si>
+    <t>${SchoolDistrict.Aun}</t>
+  </si>
+  <si>
+    <t>${SchoolDistrict.Name}</t>
+  </si>
+  <si>
+    <t>${Prepared}</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Student </t>
+  </si>
+  <si>
+    <t>Last Day</t>
+  </si>
+  <si>
+    <t>Date of IEP</t>
+  </si>
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>Enrollment</t>
+  </si>
+  <si>
+    <t>First Day</t>
+  </si>
+  <si>
+    <t>Educated</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
     <t>Summary Information Sheet</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">For the Months of </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF800000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">July </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>2018 to</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF800000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF800000"/>
-        <sz val="10.0"/>
-        <u/>
-      </rPr>
-      <t>${AsOfMonth} ${AsOfYear}</t>
-    </r>
-  </si>
-  <si>
-    <t>${SchoolDistrict.Aun}</t>
+    <t>For the Months of July 2018 to ${ScopeMonth} ${ScopeYear}</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>PASecureID</t>
+  </si>
+  <si>
+    <t>Student Name and Address</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>(if student</t>
+  </si>
+  <si>
+    <t>Education</t>
   </si>
   <si>
     <t>Invoice Prep Date:</t>
   </si>
   <si>
-    <t>${Prepared}</t>
-  </si>
-  <si>
-    <t>${SchoolDistrict.Name}</t>
+    <t>Form Sent to SD:</t>
   </si>
   <si>
     <t>Date Sent to SD:</t>
@@ -89,10 +104,22 @@
     <t>${ToSchoolDistrict}</t>
   </si>
   <si>
+    <t xml:space="preserve"> withdrew)</t>
+  </si>
+  <si>
     <t>Date Sent to PDE:</t>
   </si>
   <si>
     <t>${ToPDE}</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Prior</t>
+  </si>
+  <si>
+    <t>${Students[0].FullName}</t>
   </si>
   <si>
     <t>JUL
@@ -146,12 +173,24 @@
 Due</t>
   </si>
   <si>
+    <t>${Students[0].DateOfBirth}</t>
+  </si>
+  <si>
     <t>Nonspecial Education</t>
   </si>
   <si>
+    <t>${Students[0].CurrentIep}</t>
+  </si>
+  <si>
     <t>${RegularEnrollments.July}</t>
   </si>
   <si>
+    <t>${Students[0].PASecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[0].Address1}</t>
+  </si>
+  <si>
     <t>${RegularEnrollments.August}</t>
   </si>
   <si>
@@ -224,54 +263,327 @@
     <t>${SchoolDistrict.SpecialRate}</t>
   </si>
   <si>
+    <t>${Students[0].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[0].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[0].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[0].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[0].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[0].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[0].Address3}</t>
+  </si>
+  <si>
     <t>Total Amount Due Year to Date:</t>
   </si>
   <si>
+    <t>${Students[1].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[1].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[1].CurrentIep}</t>
+  </si>
+  <si>
+    <t>${Students[1].PASecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[1].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[1].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[1].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[1].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[1].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[1].Grade}</t>
+  </si>
+  <si>
     <t xml:space="preserve"> School District</t>
   </si>
   <si>
     <t>Check</t>
   </si>
   <si>
+    <t>${Students[1].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[1].Address3}</t>
+  </si>
+  <si>
+    <t>${Students[2].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[2].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[2].CurrentIep}</t>
+  </si>
+  <si>
     <t xml:space="preserve">   PDE Subsidy</t>
   </si>
   <si>
+    <t>${Students[2].PASecuredID}</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Refund from</t>
   </si>
   <si>
+    <t>${Students[2].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[2].FirstDay}</t>
+  </si>
+  <si>
     <t>Month</t>
   </si>
   <si>
+    <t>${Students[2].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[2].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[2].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[2].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[2].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[2].Address3}</t>
+  </si>
+  <si>
+    <t>${Students[3].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[3].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[3].CurrentIep}</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Direct Payment</t>
   </si>
   <si>
+    <t>${Students[3].PASecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[3].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[3].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[3].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[3].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[3].Address2}</t>
+  </si>
+  <si>
     <t>Number</t>
   </si>
   <si>
+    <t>${Students[3].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[3].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[3].Address3}</t>
+  </si>
+  <si>
+    <t>${Students[4].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[4].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[4].CurrentIep}</t>
+  </si>
+  <si>
+    <t>${Students[4].PASecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[4].Address1}</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
     <t xml:space="preserve">  Deduction</t>
   </si>
   <si>
+    <t>${Students[4].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[4].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[4].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[4].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[4].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[4].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[4].Address3}</t>
+  </si>
+  <si>
+    <t>${Students[5].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[5].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[5].CurrentIep}</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Charter School</t>
   </si>
   <si>
+    <t>${Students[5].PASecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[5].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[5].FirstDay}</t>
+  </si>
+  <si>
     <t>July, ${FirstYear}</t>
   </si>
   <si>
+    <t>${Students[5].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[5].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[5].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[5].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[5].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[5].Address3}</t>
+  </si>
+  <si>
+    <t>${Students[6].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[6].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[6].CurrentIep}</t>
+  </si>
+  <si>
+    <t>${Students[6].PASecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[6].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[6].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[6].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[6].IsSpecialEducation}</t>
+  </si>
+  <si>
+    <t>${Students[6].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[6].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[6].FormerIep}</t>
+  </si>
+  <si>
+    <t>${Students[6].Address3}</t>
+  </si>
+  <si>
+    <t>${Students[7].FullName}</t>
+  </si>
+  <si>
+    <t>${Students[7].DateOfBirth}</t>
+  </si>
+  <si>
+    <t>${Students[7].CurrentIep}</t>
+  </si>
+  <si>
     <t>${Transactions.July.Payment.CheckAmount}</t>
   </si>
   <si>
+    <t>${Students[7].PASecuredID}</t>
+  </si>
+  <si>
+    <t>${Students[7].Address1}</t>
+  </si>
+  <si>
+    <t>${Students[7].FirstDay}</t>
+  </si>
+  <si>
+    <t>${Students[7].LastDay}</t>
+  </si>
+  <si>
+    <t>${Students[7].IsSpecialEducation}</t>
+  </si>
+  <si>
     <t>${Transactions.July.Payment.CheckNumber}</t>
   </si>
   <si>
     <t>${Transactions.July.Payment.Date}</t>
   </si>
   <si>
+    <t>${Students[7].Address2}</t>
+  </si>
+  <si>
+    <t>${Students[7].Grade}</t>
+  </si>
+  <si>
+    <t>${Students[7].FormerIep}</t>
+  </si>
+  <si>
     <t>${Transactions.July.Payment.UniPayAmount}</t>
   </si>
   <si>
+    <t>${Students[7].Address3}</t>
+  </si>
+  <si>
     <t>${Transactions.July.Refund}</t>
   </si>
   <si>
@@ -290,12 +602,6 @@
     <t>${Transactions.August.Payment.UniPayAmount}</t>
   </si>
   <si>
-    <t>Individual Student Information Sheet</t>
-  </si>
-  <si>
-    <t>For the Months of July ${FirstYear} to ${AsOfMonth} ${AsOfYear}</t>
-  </si>
-  <si>
     <t>${Transactions.August.Refund}</t>
   </si>
   <si>
@@ -479,72 +785,21 @@
     <t>${Transactions.June.Refund}</t>
   </si>
   <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Student </t>
-  </si>
-  <si>
-    <t>Last Day</t>
-  </si>
-  <si>
     <t>Please Remit Payment to:</t>
   </si>
   <si>
-    <t>Date of IEP</t>
-  </si>
-  <si>
-    <t>Sequential</t>
-  </si>
-  <si>
     <t>Business Office, Suite A130</t>
   </si>
   <si>
     <t>Total Paid to Date for 2018-2019 School Year:</t>
   </si>
   <si>
-    <t>Enrollment</t>
-  </si>
-  <si>
-    <t>First Day</t>
-  </si>
-  <si>
     <t>652 Midland Avenue</t>
   </si>
   <si>
-    <t>Educated</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>PASecureID</t>
-  </si>
-  <si>
     <t>Midland, PA 15059</t>
   </si>
   <si>
-    <t>Student Name and Address</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Notification</t>
-  </si>
-  <si>
-    <t>(if student</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>Please Direct any questions to:</t>
   </si>
   <si>
@@ -552,306 +807,6 @@
   </si>
   <si>
     <t>Finance: 724-888-7775</t>
-  </si>
-  <si>
-    <t>Form Sent to SD:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> withdrew)</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Prior</t>
-  </si>
-  <si>
-    <t>${Students[0].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[0].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[0].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[0].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[0].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[0].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[0].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[0].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[0].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[0].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[0].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[0].Address3}</t>
-  </si>
-  <si>
-    <t>${Students[1].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[1].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[1].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[1].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[1].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[1].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[1].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[1].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[1].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[1].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[1].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[1].Address3}</t>
-  </si>
-  <si>
-    <t>${Students[2].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[2].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[2].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[2].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[2].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[2].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[2].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[2].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[2].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[2].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[2].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[2].Address3}</t>
-  </si>
-  <si>
-    <t>${Students[3].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[3].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[3].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[3].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[3].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[3].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[3].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[3].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[3].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[3].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[3].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[3].Address3}</t>
-  </si>
-  <si>
-    <t>${Students[4].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[4].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[4].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[4].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[4].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[4].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[4].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[4].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[4].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[4].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[4].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[4].Address3}</t>
-  </si>
-  <si>
-    <t>${Students[5].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[5].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[5].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[5].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[5].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[5].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[5].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[5].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[5].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[5].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[5].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[5].Address3}</t>
-  </si>
-  <si>
-    <t>${Students[6].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[6].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[6].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[6].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[6].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[6].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[6].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[6].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[6].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[6].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[6].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[6].Address3}</t>
-  </si>
-  <si>
-    <t>${Students[7].FullName}</t>
-  </si>
-  <si>
-    <t>${Students[7].DateOfBirth}</t>
-  </si>
-  <si>
-    <t>${Students[7].CurrentIep}</t>
-  </si>
-  <si>
-    <t>${Students[7].PASecuredID}</t>
-  </si>
-  <si>
-    <t>${Students[7].Address1}</t>
-  </si>
-  <si>
-    <t>${Students[7].FirstDay}</t>
-  </si>
-  <si>
-    <t>${Students[7].LastDay}</t>
-  </si>
-  <si>
-    <t>${Students[7].IsSpecialEducation}</t>
-  </si>
-  <si>
-    <t>${Students[7].Address2}</t>
-  </si>
-  <si>
-    <t>${Students[7].Grade}</t>
-  </si>
-  <si>
-    <t>${Students[7].FormerIep}</t>
-  </si>
-  <si>
-    <t>${Students[7].Address3}</t>
   </si>
 </sst>
 </file>
@@ -876,6 +831,17 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -893,19 +859,18 @@
       <name val="Arial"/>
     </font>
     <font>
+      <i/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF800000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -921,12 +886,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <i/>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="9.0"/>
       <color rgb="FF172B4D"/>
@@ -935,10 +894,6 @@
     <font>
       <sz val="9.0"/>
       <color rgb="FF172B4D"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -957,14 +912,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFEAEAEA"/>
+        <bgColor rgb="FFEAEAEA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAEAEA"/>
-        <bgColor rgb="FFEAEAEA"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1023,6 +978,13 @@
       </bottom>
     </border>
     <border>
+      <left/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFAAAAAA"/>
       </left>
@@ -1030,6 +992,74 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1038,12 +1068,18 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1052,9 +1088,82 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
       </bottom>
     </border>
     <border>
@@ -1092,6 +1201,30 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left/>
@@ -1140,6 +1273,29 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left/>
@@ -1169,35 +1325,6 @@
     </border>
     <border>
       <left/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FFD8D8D8"/>
       </right>
@@ -1229,71 +1356,13 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left/>
       <top/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
     </border>
     <border>
       <left/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1321,16 +1390,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFAAAAAA"/>
       </left>
       <top/>
@@ -1339,110 +1398,6 @@
       <right/>
       <top/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEAEAEA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
@@ -1454,452 +1409,452 @@
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="13" fillId="3" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="17" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="16" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="19" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="20" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="21" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="22" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="25" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="21" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="26" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="13" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="27" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="28" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="29" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="16" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="30" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="31" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="16" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="6" fillId="2" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="32" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="32" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="32" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="32" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="17" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="32" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="33" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="34" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="35" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="17" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="34" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="36" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="37" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="36" fillId="4" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="35" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="38" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="39" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="34" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="35" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="33" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="20" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="21" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="40" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="41" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="20" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="40" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="22" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="42" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="22" fillId="3" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="42" fillId="4" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="21" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="41" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="40" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="41" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="40" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="43" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="44" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="43" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="45" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="45" fillId="4" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="44" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="43" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="21" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="44" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="32" fillId="4" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="33" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="33" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="33" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="46" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="2" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="48" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="49" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="50" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="50" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="51" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="52" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="53" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="25" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="26" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="27" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="26" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="28" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="28" fillId="3" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="27" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="26" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="27" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="29" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="30" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="25" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="25" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="25" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="31" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="32" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="31" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="33" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="35" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="31" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="37" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="36" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="38" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="31" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="33" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="31" fillId="4" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="40" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="41" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="42" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="43" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="44" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="36" fillId="4" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="45" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="46" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="48" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="36" fillId="2" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="36" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="49" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="50" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="36" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="51" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="52" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="53" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1949,920 +1904,920 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="6"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="40"/>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="11"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="11"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="17" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="18" t="s">
-        <v>9</v>
+      <c r="B7" s="19"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="18" t="s">
-        <v>11</v>
+      <c r="A8" s="55"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="14"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="14"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" ht="39.0" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="28" t="s">
-        <v>24</v>
+      <c r="A11" s="62"/>
+      <c r="B11" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="66" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="33" t="str">
+      <c r="A12" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="77" t="str">
         <f t="shared" ref="N12:N13" si="1">ROUND(SUMIF(B12:L12,"&gt;0")*M12/12,2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="33" t="str">
+      <c r="A13" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="77" t="str">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="36"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="82"/>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="39" t="str">
+      <c r="A15" s="6"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="89" t="str">
         <f>SUM(N12:N13)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="14"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="49"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="14"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="16"/>
+      <c r="K17" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="49"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="45"/>
-      <c r="K18" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="45"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="14"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="93"/>
+      <c r="G18" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="J18" s="96"/>
+      <c r="K18" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" s="96"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="49"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="55"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="14"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="101" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="104"/>
+      <c r="J19" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" s="110"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="49"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="64"/>
-      <c r="J20" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="K20" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="L20" s="70"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="14"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="112"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="115" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="116" t="s">
+        <v>190</v>
+      </c>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" s="119" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" s="120"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="49"/>
     </row>
     <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="L21" s="70"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="14"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="121"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="115" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21" s="116" t="s">
+        <v>196</v>
+      </c>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" s="120"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="49"/>
     </row>
     <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="64"/>
-      <c r="J22" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="K22" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="L22" s="70"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="14"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="121"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="115" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" s="119" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" s="120"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="49"/>
     </row>
     <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="64"/>
-      <c r="J23" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="L23" s="70"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="76"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="121"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" s="115" t="s">
+        <v>207</v>
+      </c>
+      <c r="H23" s="116" t="s">
+        <v>208</v>
+      </c>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" s="119" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" s="120"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="122"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="64"/>
-      <c r="J24" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="K24" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="L24" s="70"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="14"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="121"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="115" t="s">
+        <v>213</v>
+      </c>
+      <c r="H24" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" s="119" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" s="120"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="49"/>
     </row>
     <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="64"/>
-      <c r="J25" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="K25" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="L25" s="70"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="14"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="121"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="H25" s="116" t="s">
+        <v>220</v>
+      </c>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" s="120"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="49"/>
     </row>
     <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="L26" s="70"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="14"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" s="121"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" s="115" t="s">
+        <v>225</v>
+      </c>
+      <c r="H26" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" s="119" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" s="120"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="49"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="H27" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="K27" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="L27" s="70"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="14"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="121"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" s="115" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" s="116" t="s">
+        <v>232</v>
+      </c>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" s="119" t="s">
+        <v>234</v>
+      </c>
+      <c r="L27" s="120"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="H28" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="64"/>
-      <c r="J28" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="K28" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="L28" s="70"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="14"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="121"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" s="115" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="116" t="s">
+        <v>238</v>
+      </c>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="K28" s="119" t="s">
+        <v>240</v>
+      </c>
+      <c r="L28" s="120"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="49"/>
     </row>
     <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="K29" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="L29" s="70"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="14"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29" s="121"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" s="115" t="s">
+        <v>243</v>
+      </c>
+      <c r="H29" s="116" t="s">
+        <v>244</v>
+      </c>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="K29" s="119" t="s">
+        <v>246</v>
+      </c>
+      <c r="L29" s="120"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="49"/>
     </row>
     <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="85"/>
-      <c r="J30" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="K30" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="L30" s="91"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="14"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="123"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="125" t="s">
+        <v>248</v>
+      </c>
+      <c r="G30" s="126" t="s">
+        <v>249</v>
+      </c>
+      <c r="H30" s="127" t="s">
+        <v>250</v>
+      </c>
+      <c r="I30" s="128"/>
+      <c r="J30" s="129" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" s="130" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" s="131"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="49"/>
     </row>
     <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="96">
+      <c r="A31" s="6"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="134">
         <f>SUM(F19:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93">
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="133">
         <f>SUM(J19:J30)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93">
+      <c r="K31" s="133"/>
+      <c r="L31" s="133">
         <f>SUM(L19:L30)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="14"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="49"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="100" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="135" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="102"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="137"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="C33" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" s="104"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="N33" s="106">
+      <c r="A33" s="6"/>
+      <c r="C33" s="136" t="s">
+        <v>254</v>
+      </c>
+      <c r="E33" s="138"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="N33" s="139">
         <f>ROUND(F31+J31-L31,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="100" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="111"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="141"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="113"/>
-      <c r="B35" s="109"/>
-      <c r="C35" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="115"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="119"/>
+      <c r="A35" s="142"/>
+      <c r="B35" s="140"/>
+      <c r="C35" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="143"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="143"/>
+      <c r="N35" s="145"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="121"/>
-      <c r="B36" s="122" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="123" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="124"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="119"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="147" t="s">
+        <v>258</v>
+      </c>
+      <c r="C36" s="148" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" s="149"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="143"/>
+      <c r="L36" s="143"/>
+      <c r="M36" s="143"/>
+      <c r="N36" s="145"/>
     </row>
     <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="121"/>
-      <c r="C37" s="123" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="124"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="102"/>
-      <c r="M37" s="127" t="str">
+      <c r="A37" s="146"/>
+      <c r="C37" s="148" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="143"/>
+      <c r="L37" s="137"/>
+      <c r="M37" s="150" t="str">
         <f>IF(N15-N33&gt;=0,"Net Due to Charter School:","Net Due to School District:")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N37" s="129" t="str">
+      <c r="N37" s="151" t="str">
         <f>ROUND(ABS(N15-N33),2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="113"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
+      <c r="A38" s="142"/>
+      <c r="D38" s="143"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="143"/>
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
@@ -3866,850 +3821,850 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="60"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="65" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="66"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="11"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="11"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="74"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="71" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="77"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="95"/>
-      <c r="I8" s="97" t="s">
-        <v>138</v>
-      </c>
-      <c r="J8" s="99"/>
-      <c r="K8" s="94" t="s">
-        <v>140</v>
+      <c r="G8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="33"/>
+      <c r="K8" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="110" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="110" t="s">
-        <v>147</v>
-      </c>
-      <c r="J9" s="101" t="s">
-        <v>148</v>
-      </c>
-      <c r="K9" s="112" t="s">
-        <v>149</v>
+      <c r="A9" s="24"/>
+      <c r="B9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="78"/>
-      <c r="B10" s="101" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="114" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="116" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="107"/>
-      <c r="F10" s="94" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="101" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="110" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10" s="118" t="s">
-        <v>156</v>
-      </c>
-      <c r="J10" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="K10" s="94" t="s">
-        <v>140</v>
+      <c r="A10" s="24"/>
+      <c r="B10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="112" t="s">
-        <v>161</v>
-      </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="J11" s="112" t="s">
-        <v>163</v>
-      </c>
-      <c r="K11" s="112" t="s">
-        <v>164</v>
+      <c r="A11" s="24"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="54"/>
+      <c r="I11" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="78"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="131" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="132"/>
-      <c r="F12" s="133" t="s">
-        <v>166</v>
-      </c>
-      <c r="G12" s="134"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="133" t="s">
-        <v>167</v>
+      <c r="A12" s="24"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="65" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="136">
+      <c r="A13" s="24"/>
+      <c r="B13" s="70">
         <v>1.0</v>
       </c>
-      <c r="C13" s="137" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="138" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="139"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="I13" s="142" t="s">
-        <v>171</v>
-      </c>
-      <c r="J13" s="137" t="s">
-        <v>172</v>
-      </c>
-      <c r="K13" s="143"/>
+      <c r="C13" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="74"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="83"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="78"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="138" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="139"/>
-      <c r="F14" s="133" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="141"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="133" t="s">
-        <v>175</v>
+      <c r="A14" s="24"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="65" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="78"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="144" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="145"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="86"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="78"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="132"/>
-      <c r="F16" s="133" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="134"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="133" t="s">
-        <v>179</v>
+      <c r="A16" s="24"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="65" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="78"/>
-      <c r="B17" s="136">
+      <c r="A17" s="24"/>
+      <c r="B17" s="70">
         <f>B13+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="137" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="138" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="139"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142" t="s">
-        <v>182</v>
-      </c>
-      <c r="I17" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="J17" s="137" t="s">
-        <v>184</v>
-      </c>
-      <c r="K17" s="143"/>
+      <c r="C17" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="74"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="83"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="78"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="138" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="139"/>
-      <c r="F18" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="G18" s="141"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="133" t="s">
-        <v>187</v>
+      <c r="A18" s="24"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="74"/>
+      <c r="F18" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="78"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="65" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="78"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="E19" s="145"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="86"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="78"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="131" t="s">
-        <v>189</v>
-      </c>
-      <c r="E20" s="132"/>
-      <c r="F20" s="133" t="s">
-        <v>190</v>
-      </c>
-      <c r="G20" s="134"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="133" t="s">
-        <v>191</v>
+      <c r="A20" s="24"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="65" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="78"/>
-      <c r="B21" s="136">
+      <c r="A21" s="24"/>
+      <c r="B21" s="70">
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="137" t="s">
-        <v>192</v>
-      </c>
-      <c r="D21" s="138" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="142" t="s">
-        <v>194</v>
-      </c>
-      <c r="I21" s="142" t="s">
-        <v>195</v>
-      </c>
-      <c r="J21" s="137" t="s">
-        <v>196</v>
-      </c>
-      <c r="K21" s="143"/>
+      <c r="C21" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="74"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="83"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="78"/>
-      <c r="B22" s="136"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="138" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" s="139"/>
-      <c r="F22" s="147" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="141"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="133" t="s">
-        <v>199</v>
+      <c r="A22" s="24"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="74"/>
+      <c r="F22" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="78"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="65" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="78"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144" t="s">
-        <v>200</v>
-      </c>
-      <c r="E23" s="145"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="86"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="78"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="131" t="s">
-        <v>201</v>
-      </c>
-      <c r="E24" s="132"/>
-      <c r="F24" s="133" t="s">
-        <v>202</v>
-      </c>
-      <c r="G24" s="134"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="133" t="s">
-        <v>203</v>
+      <c r="A24" s="24"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="67"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="65" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="78"/>
-      <c r="B25" s="136">
+      <c r="A25" s="24"/>
+      <c r="B25" s="70">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C25" s="137" t="s">
-        <v>204</v>
-      </c>
-      <c r="D25" s="138" t="s">
-        <v>205</v>
-      </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="142" t="s">
-        <v>206</v>
-      </c>
-      <c r="I25" s="142" t="s">
-        <v>207</v>
-      </c>
-      <c r="J25" s="137" t="s">
-        <v>208</v>
-      </c>
-      <c r="K25" s="143"/>
+      <c r="C25" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="74"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="83"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="78"/>
-      <c r="B26" s="136"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="E26" s="139"/>
-      <c r="F26" s="147" t="s">
-        <v>210</v>
-      </c>
-      <c r="G26" s="141"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="133" t="s">
-        <v>211</v>
+      <c r="A26" s="24"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="74"/>
+      <c r="F26" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="78"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="65" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="78"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144" t="s">
-        <v>212</v>
-      </c>
-      <c r="E27" s="145"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="86"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="78"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="131" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" s="132"/>
-      <c r="F28" s="133" t="s">
-        <v>214</v>
-      </c>
-      <c r="G28" s="134"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="133" t="s">
-        <v>215</v>
+      <c r="A28" s="24"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="67"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="65" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="78"/>
-      <c r="B29" s="136">
+      <c r="A29" s="24"/>
+      <c r="B29" s="70">
         <f>B25+1</f>
         <v>5</v>
       </c>
-      <c r="C29" s="137" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="138" t="s">
-        <v>217</v>
-      </c>
-      <c r="E29" s="139"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="142" t="s">
-        <v>218</v>
-      </c>
-      <c r="I29" s="142" t="s">
-        <v>219</v>
-      </c>
-      <c r="J29" s="137" t="s">
-        <v>220</v>
-      </c>
-      <c r="K29" s="143"/>
+      <c r="C29" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="74"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" s="83"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="78"/>
-      <c r="B30" s="136"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="138" t="s">
-        <v>221</v>
-      </c>
-      <c r="E30" s="139"/>
-      <c r="F30" s="147" t="s">
-        <v>222</v>
-      </c>
-      <c r="G30" s="141"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="133" t="s">
-        <v>223</v>
+      <c r="A30" s="24"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="74"/>
+      <c r="F30" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="78"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="65" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="78"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="E31" s="145"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="143"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="86"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="78"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="131" t="s">
-        <v>225</v>
-      </c>
-      <c r="E32" s="132"/>
-      <c r="F32" s="133" t="s">
-        <v>226</v>
-      </c>
-      <c r="G32" s="134"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="133" t="s">
-        <v>227</v>
+      <c r="A32" s="24"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="67"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="65" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="78"/>
-      <c r="B33" s="136">
+      <c r="A33" s="24"/>
+      <c r="B33" s="70">
         <f>B29+1</f>
         <v>6</v>
       </c>
-      <c r="C33" s="137" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="E33" s="139"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="142" t="s">
-        <v>230</v>
-      </c>
-      <c r="I33" s="142" t="s">
-        <v>231</v>
-      </c>
-      <c r="J33" s="137" t="s">
-        <v>232</v>
-      </c>
-      <c r="K33" s="143"/>
+      <c r="C33" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="74"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="J33" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="K33" s="83"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="78"/>
-      <c r="B34" s="136"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="138" t="s">
-        <v>233</v>
-      </c>
-      <c r="E34" s="139"/>
-      <c r="F34" s="147" t="s">
-        <v>234</v>
-      </c>
-      <c r="G34" s="141"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="133" t="s">
-        <v>235</v>
+      <c r="A34" s="24"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="74"/>
+      <c r="F34" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="78"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="65" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="78"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="144" t="s">
-        <v>236</v>
-      </c>
-      <c r="E35" s="145"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="143"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="86"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="78"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="131" t="s">
-        <v>237</v>
-      </c>
-      <c r="E36" s="132"/>
-      <c r="F36" s="133" t="s">
-        <v>238</v>
-      </c>
-      <c r="G36" s="134"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="133" t="s">
-        <v>239</v>
+      <c r="A36" s="24"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="64"/>
+      <c r="F36" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="67"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="65" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="78"/>
-      <c r="B37" s="136">
+      <c r="A37" s="24"/>
+      <c r="B37" s="70">
         <f>B33+1</f>
         <v>7</v>
       </c>
-      <c r="C37" s="137" t="s">
-        <v>240</v>
-      </c>
-      <c r="D37" s="138" t="s">
-        <v>241</v>
-      </c>
-      <c r="E37" s="139"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="142" t="s">
-        <v>242</v>
-      </c>
-      <c r="I37" s="142" t="s">
-        <v>243</v>
-      </c>
-      <c r="J37" s="137" t="s">
-        <v>244</v>
-      </c>
-      <c r="K37" s="143"/>
+      <c r="C37" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="74"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="I37" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="J37" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="K37" s="83"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="78"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="138" t="s">
-        <v>245</v>
-      </c>
-      <c r="E38" s="139"/>
-      <c r="F38" s="147" t="s">
-        <v>246</v>
-      </c>
-      <c r="G38" s="141"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="136"/>
-      <c r="J38" s="136"/>
-      <c r="K38" s="133" t="s">
-        <v>247</v>
+      <c r="A38" s="24"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="74"/>
+      <c r="F38" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" s="78"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="65" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="78"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="144" t="s">
-        <v>248</v>
-      </c>
-      <c r="E39" s="145"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="143"/>
-      <c r="K39" s="143"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="86"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="78"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="131" t="s">
-        <v>249</v>
-      </c>
-      <c r="E40" s="132"/>
-      <c r="F40" s="133" t="s">
-        <v>250</v>
-      </c>
-      <c r="G40" s="134"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="133" t="s">
-        <v>251</v>
+      <c r="A40" s="24"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="64"/>
+      <c r="F40" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="67"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="65" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="78"/>
-      <c r="B41" s="136">
+      <c r="A41" s="24"/>
+      <c r="B41" s="70">
         <f>B37+1</f>
         <v>8</v>
       </c>
-      <c r="C41" s="137" t="s">
-        <v>252</v>
-      </c>
-      <c r="D41" s="138" t="s">
-        <v>253</v>
-      </c>
-      <c r="E41" s="139"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="142" t="s">
-        <v>254</v>
-      </c>
-      <c r="I41" s="142" t="s">
-        <v>255</v>
-      </c>
-      <c r="J41" s="137" t="s">
-        <v>256</v>
-      </c>
-      <c r="K41" s="143"/>
+      <c r="C41" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" s="74"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="I41" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="J41" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="K41" s="83"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="148"/>
-      <c r="B42" s="136"/>
-      <c r="C42" s="136"/>
-      <c r="D42" s="138" t="s">
-        <v>257</v>
-      </c>
-      <c r="E42" s="139"/>
-      <c r="F42" s="147" t="s">
-        <v>258</v>
-      </c>
-      <c r="G42" s="141"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="133" t="s">
-        <v>259</v>
+      <c r="A42" s="102"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="74"/>
+      <c r="F42" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" s="78"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="65" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="149"/>
-      <c r="B43" s="150"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="144" t="s">
-        <v>260</v>
-      </c>
-      <c r="E43" s="145"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="143"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="86"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="151"/>
-      <c r="B44" s="151"/>
-      <c r="C44" s="151"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="151"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="108"/>
     </row>
     <row r="45" ht="15.75" customHeight="1"/>
     <row r="46" ht="15.75" customHeight="1"/>
